--- a/application/plantsDB.xlsx
+++ b/application/plantsDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="853">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,7 @@
 With thorns/spines/prickles/teeth</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-11-15/Paul2032/5d7051-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Aloe_vera_flower_inset.png/390px-Aloe_vera_flower_inset.png</t>
   </si>
   <si>
     <t>Holy Basil,Tulsi</t>
@@ -154,7 +154,7 @@
 Dried Flower</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2010-12-04/wildflowers/a14c7a-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Tulsi_or_Tulasi_Holy_basil.jpg/330px-Tulsi_or_Tulasi_Holy_basil.jpg</t>
   </si>
   <si>
     <t>Snake plant,Mother-in-law's tongue</t>
@@ -177,7 +177,7 @@
     <t>Decor</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-03-17/GigiPlumeria/6c3aa1-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Snake_Plant_%28Sansevieria_trifasciata_%27Laurentii%27%29.jpg/330px-Snake_Plant_%28Sansevieria_trifasciata_%27Laurentii%27%29.jpg</t>
   </si>
   <si>
     <t>Rose, Gulaab</t>
@@ -207,7 +207,7 @@
     <t>With thorns/spines/prickles/teeth</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2011-12-28/Calif_Sue/82ac8c-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3a/Rosa_Precious_platinum.jpg/330px-Rosa_Precious_platinum.jpg</t>
   </si>
   <si>
     <t>Marigold, Genda</t>
@@ -255,7 +255,7 @@
     <t>Tolerates poor soil</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-01-19/queen1694/95c90b-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b0/Tagetes_erecta_chendumalli_chedi.jpg/330px-Tagetes_erecta_chendumalli_chedi.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Jasmine </t>
@@ -276,7 +276,7 @@
     <t>Flower</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-05-25/Catmint20906/244184-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/42/Common_Jasmine.jpg/330px-Common_Jasmine.jpg</t>
   </si>
   <si>
     <t>Hibiscus,Hardy Hibiscus, Gulmohar</t>
@@ -307,7 +307,7 @@
     <t>Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-12-09/sunkissed/9a746d-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Hibiscus_flower_TZ.jpg/330px-Hibiscus_flower_TZ.jpg</t>
   </si>
   <si>
     <t>Crepe Jasmine, Chhandani</t>
@@ -336,7 +336,7 @@
 Medicinal Herb</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-10-18/robertduval14/735879-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/Crape_Jasmine.jpg/330px-Crape_Jasmine.jpg</t>
   </si>
   <si>
     <t>Vinca,periwinkle</t>
@@ -364,7 +364,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-04-18/plantladylin/9bbd4e-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5b/Vinca_minor_Nashville.jpg/480px-Vinca_minor_Nashville.jpg</t>
   </si>
   <si>
     <t>Spider Plant</t>
@@ -383,7 +383,7 @@
 Neutral (6.6 – 7.3)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-04-11/Tom_F_GA/1af969-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b1/Hierbabuena_0611_Revised.jpg/330px-Hierbabuena_0611_Revised.jpg</t>
   </si>
   <si>
     <t>Weeping Fig,Benjamin Fig</t>
@@ -404,7 +404,7 @@
 ,Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-02-05/DaylilySLP/88bce6-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Ficus_benjamina2.jpg/330px-Ficus_benjamina2.jpg</t>
   </si>
   <si>
     <t>Areca Palm,Butterfly Palm</t>
@@ -419,7 +419,7 @@
     <t>Windbreak or Hedge</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-03-10/ILPARW/49e401-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/90/Chrysalidocarpus_lutescens_%28Dypsis_lutescens%29.jpg/330px-Chrysalidocarpus_lutescens_%28Dypsis_lutescens%29.jpg</t>
   </si>
   <si>
     <t>Pothos,Money plant, devil's ivy</t>
@@ -445,7 +445,7 @@
     <t>Epiphytic</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-10-24/terrafirma/823cda-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Epipremnum_aureum_31082012.jpg/330px-Epipremnum_aureum_31082012.jpg</t>
   </si>
   <si>
     <t>Hydrangeas</t>
@@ -456,7 +456,7 @@
 Dried Flower</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-08-11/bumplbea/f83947-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Bauernhortensie_Wochenmarkt.jpg/330px-Bauernhortensie_Wochenmarkt.jpg</t>
   </si>
   <si>
     <t>Lucky bamboo</t>
@@ -471,7 +471,7 @@
     <t>Late fall or early winter</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-12-09/tofitropic/3862ae-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d0/A_trio_of_plantae_%22Dracaena_Sanderiana%22.jpg/135px-A_trio_of_plantae_%22Dracaena_Sanderiana%22.jpg</t>
   </si>
   <si>
     <t>Boston Fern</t>
@@ -486,7 +486,7 @@
     <t>Slightly acid (6.1 – 6.5), Neutral (6.6 – 7.3), Slightly alkaline (7.4 – 7.8)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-04-06/ILPARW/a9eb70-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/30/Boston_Fern_%282873392811%29.png/330px-Boston_Fern_%282873392811%29.png</t>
   </si>
   <si>
     <t>Baby Rubber plant</t>
@@ -505,7 +505,7 @@
     <t>Early summer untill autumn</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-08-12/hlutzow/97baf2-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/19/Peperomia_obtusifolia_3-OB9.jpg/330px-Peperomia_obtusifolia_3-OB9.jpg</t>
   </si>
   <si>
     <t>Peppermint</t>
@@ -514,7 +514,7 @@
     <t>Mentha x piperita</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-07-03/MySecretIslandGarden/d3f4c3-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/72/Pfefferminze_natur_peppermint.jpg/330px-Pfefferminze_natur_peppermint.jpg</t>
   </si>
   <si>
     <t>Grape Ivy</t>
@@ -536,7 +536,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-03-11/CarolineScott/c1fb60-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8b/Cissus_alata_Leaves.JPG/330px-Cissus_alata_Leaves.JPG</t>
   </si>
   <si>
     <t>Croton</t>
@@ -566,7 +566,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-12-17/plantmanager/ed87e5-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bf/Colpfl05.jpg/330px-Colpfl05.jpg</t>
   </si>
   <si>
     <t>Coriander</t>
@@ -583,7 +583,7 @@
     <t>Culinary Herb</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-05-02/wildflowers/4b5d5f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7c/Coriandrum_sativum_003.JPG/338px-Coriandrum_sativum_003.JPG</t>
   </si>
   <si>
     <t>Indian Aster</t>
@@ -638,7 +638,7 @@
 Goes Dormant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-09-18/sedumzz/965361-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/74/Kalimeris-indica-by-Taraxacumseeds-01.jpg/330px-Kalimeris-indica-by-Taraxacumseeds-01.jpg</t>
   </si>
   <si>
     <t>Lemon Grass</t>
@@ -665,7 +665,7 @@
 Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2011-09-29/mom2goldens/5a305d-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bd/YosriNov04Pokok_Serai.JPG/330px-YosriNov04Pokok_Serai.JPG</t>
   </si>
   <si>
     <t>Bougainvillea, Gaganbel</t>
@@ -681,7 +681,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-10-16/Fleur569/d1ce83-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Bougainvillea%2C_Behbahan.jpg/330px-Bougainvillea%2C_Behbahan.jpg</t>
   </si>
   <si>
     <t>Jungle Geranium,Flame of the Woods</t>
@@ -701,7 +701,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-09-02/Dinu/4eeaae-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7b/Ixora_coccinea_Pink_INDIA_%283%29.jpg/330px-Ixora_coccinea_Pink_INDIA_%283%29.jpg</t>
   </si>
   <si>
     <t>Lantana, Raimuniya</t>
@@ -725,7 +725,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-10-08/RuuddeBlock/ae9f04-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/52/LantanaFlowerLeaves.jpg/330px-LantanaFlowerLeaves.jpg</t>
   </si>
   <si>
     <t>Night Jasmine, raat ki rani, parijat</t>
@@ -750,7 +750,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-10-21/plantladylin/75b2b2-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/21/Jasminum_azoricum3.jpg/330px-Jasminum_azoricum3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Lotus,Sacred Lotus,Indian Lotus
@@ -771,7 +771,7 @@
 Will Naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-02-12/dawiz1753/6065e5-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ed/Sacred_lotus_Nelumbo_nucifera.jpg/330px-Sacred_lotus_Nelumbo_nucifera.jpg</t>
   </si>
   <si>
     <t>Mint</t>
@@ -796,7 +796,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-10-16/ManateeEssex/836067-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b0/Mint-leaves-2007.jpg/330px-Mint-leaves-2007.jpg</t>
   </si>
   <si>
     <t>Curry leaves</t>
@@ -827,7 +827,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2017-09-12/Ursula/90b548-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/CurryLeaf_Fruits.jpg/330px-CurryLeaf_Fruits.jpg</t>
   </si>
   <si>
     <t>Carom (Ajwain)</t>
@@ -851,7 +851,7 @@
 Medicinal Herb</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-12-09/dave/814500-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a6/Carom_Flowers.jpg/330px-Carom_Flowers.jpg</t>
   </si>
   <si>
     <t>Dill</t>
@@ -883,7 +883,7 @@
 Cut Flower</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-11-18/SongofJoy/d2690f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a7/20141003Anethum_graveolens.jpg/451px-20141003Anethum_graveolens.jpg</t>
   </si>
   <si>
     <t>Chilli Pepper</t>
@@ -896,7 +896,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-04-19/sedumzz/57c0ef-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Thai_peppers.jpg/330px-Thai_peppers.jpg</t>
   </si>
   <si>
     <t>Thyme</t>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-08-08/bonitin/a28489-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flowering_thyme.JPG/330px-Flowering_thyme.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Rosemary,Salvia
@@ -966,7 +966,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-12-21/HamiltonSquare/2df855-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a3/Rosemary_in_bloom.JPG/330px-Rosemary_in_bloom.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Indian Sorrel,Wood-Sorrel
@@ -999,7 +999,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-07-10/Jai_Ganesha/388a46-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/Oxalis.corniculata.7562.JPG/330px-Oxalis.corniculata.7562.JPG</t>
   </si>
   <si>
     <t>Oleanders</t>
@@ -1029,7 +1029,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-08-28/flaflwrgrl/9e9837-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/Nerium_oleander_flowers_leaves.jpg/330px-Nerium_oleander_flowers_leaves.jpg</t>
   </si>
   <si>
     <t>Aglaonema</t>
@@ -1045,7 +1045,7 @@
     <t>Seasonal bloom</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2017-02-01/plantladylin/2128cd-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/07/Aglaonema_commutatum2.jpg/330px-Aglaonema_commutatum2.jpg</t>
   </si>
   <si>
     <t>Fennel</t>
@@ -1066,7 +1066,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-07-21/poisondartfrog/01af47-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Fennel_flower_heads.jpg/608px-Fennel_flower_heads.jpg</t>
   </si>
   <si>
     <t>Musk Fenugreek,Methi</t>
@@ -1084,7 +1084,7 @@
 Suitable for forage</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-08-10/wildflowers/c84eef-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/be/Aesthetic_bunch_of_fenugreek_greens.jpg/330px-Aesthetic_bunch_of_fenugreek_greens.jpg</t>
   </si>
   <si>
     <t>Tomato</t>
@@ -1112,7 +1112,7 @@
     <t>Rabbit Resistant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-07-07/wildflowers/0919b5-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bf/Tomato_fruit_and_flowers_at_day_52.jpg/484px-Tomato_fruit_and_flowers_at_day_52.jpg</t>
   </si>
   <si>
     <t>Raddish</t>
@@ -1124,7 +1124,7 @@
     <t>Vegetable</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-03-18/Joy/b51d45-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Radijs_planten_%28Raphanus_sativus_subsp._sativus%29.jpg/330px-Radijs_planten_%28Raphanus_sativus_subsp._sativus%29.jpg</t>
   </si>
   <si>
     <t>Peas</t>
@@ -1133,7 +1133,7 @@
     <t>Pisum sativum</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-09-04/darwellwoods/20429f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Doperwt_rijserwt_peulen_Pisum_sativum.jpg/330px-Doperwt_rijserwt_peulen_Pisum_sativum.jpg</t>
   </si>
   <si>
     <t>Beans</t>
@@ -1142,7 +1142,7 @@
     <t>Phaseolus vulgaris</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-08-11/RuuddeBlock/02c4b6-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/French_beans_J1.JPG/330px-French_beans_J1.JPG</t>
   </si>
   <si>
     <t>Cucumber</t>
@@ -1151,7 +1151,7 @@
     <t>Cucumis sativus</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-09-08/Newyorkrita/ea8f08-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/ARS_cucumber.jpg/330px-ARS_cucumber.jpg</t>
   </si>
   <si>
     <t>Carrot</t>
@@ -1169,7 +1169,7 @@
     <t>Late spring or early summer, summer, early fall</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-11-11/pixie62560/105feb-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Daucus_carota_flowers%2C_peen_%27Napoli%27_%281%29.jpg/255px-Daucus_carota_flowers%2C_peen_%27Napoli%27_%281%29.jpg</t>
   </si>
   <si>
     <t>Eggplant</t>
@@ -1181,7 +1181,7 @@
     <t>Zone 11 +4.4 °C (40 °F) to +7.2 °C (50 °F)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-07-04/jmorth/8433e1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/76/Solanum_melongena_24_08_2012_%281%29.JPG/330px-Solanum_melongena_24_08_2012_%281%29.JPG</t>
   </si>
   <si>
     <t>Beetroot</t>
@@ -1193,7 +1193,7 @@
     <t>Vegetable, salad</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-03-15/duydatyds/cda214-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ae/Detroitdarkredbeets.png/330px-Detroitdarkredbeets.png</t>
   </si>
   <si>
     <t>Onion</t>
@@ -1202,7 +1202,7 @@
     <t>Allium cepa 'Rossa di Milano'</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-04-08/sedumzz/33461f-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Onion_Flower_Bangladesh.jpg/330px-Onion_Flower_Bangladesh.jpg</t>
   </si>
   <si>
     <t>Potatoes</t>
@@ -1211,7 +1211,7 @@
     <t>Solanum tuberosum</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-07-09/Johannian/25f267-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b9/Potato_flowers.jpg/330px-Potato_flowers.jpg</t>
   </si>
   <si>
     <t>11 ‘O’Clock, moss rose</t>
@@ -1223,7 +1223,7 @@
     <t>Groundcover will naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2010-06-28/Boopaints/51830f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c0/%E6%9D%BE%E8%91%89%E7%89%A1%E4%B8%B9_20190403191249.jpg/330px-%E6%9D%BE%E8%91%89%E7%89%A1%E4%B8%B9_20190403191249.jpg</t>
   </si>
   <si>
     <t>Sevanti / Chrysanthemum</t>
@@ -1244,7 +1244,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-12-12/Hazelcrestmikeb/4d2ef1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a1/Chrysanthemum_indicum_11012013.jpg/330px-Chrysanthemum_indicum_11012013.jpg</t>
   </si>
   <si>
     <t>Cosmos</t>
@@ -1261,7 +1261,7 @@
 Will Naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-10-18/LoriMT/0fcc25-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Cosmos_bipinnatus_%282%29.jpg/330px-Cosmos_bipinnatus_%282%29.jpg</t>
   </si>
   <si>
     <t>Touch-Me-Not,Gulmehandi</t>
@@ -1274,7 +1274,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-10-30/joannakat/0af863-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/78/Impatiens_balsamina_28_08_2009.JPG/800px-Impatiens_balsamina_28_08_2009.JPG</t>
   </si>
   <si>
     <t>Sunflower</t>
@@ -1295,7 +1295,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-01-04/LCL/93f768-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/40/Sunflower_sky_backdrop.jpg/220px-Sunflower_sky_backdrop.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Morning Glory,Grannyvine
@@ -1313,7 +1313,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-08-25/skopjecollection/fa2431-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9b/Morning-glory-C6295b.jpg/200px-Morning-glory-C6295b.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Hurricane Plant,Split-Leaf Philodendron
@@ -1335,7 +1335,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-03-06/cliftoncat/9d0bf5-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/04/Monstera_deliciosa3.jpg/90px-Monstera_deliciosa3.jpg</t>
   </si>
   <si>
     <t>Boxwood</t>
@@ -1357,7 +1357,7 @@
     <t>Monoecious</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-04-17/KFredenburg/eb986a-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Buxus_sempervirens0.jpg/220px-Buxus_sempervirens0.jpg</t>
   </si>
   <si>
     <t>Jade Plant</t>
@@ -1386,7 +1386,7 @@
 Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-01-07/_Bleu_/af8ad3-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/27/Crassula_bonsai.jpg/170px-Crassula_bonsai.jpg</t>
   </si>
   <si>
     <t>Asparagus Fern</t>
@@ -1407,7 +1407,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-03-25/sedumzz/fd6a90-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/Asparagus_setaceus_Leaves_2760px.jpg/220px-Asparagus_setaceus_Leaves_2760px.jpg</t>
   </si>
   <si>
     <t>English Ivy</t>
@@ -1452,7 +1452,7 @@
 Monoecious</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-01-19/kniphofia/864433-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5a/Hedera_helix_Dover.jpg/220px-Hedera_helix_Dover.jpg</t>
   </si>
   <si>
     <t>Dragon Tree</t>
@@ -1464,7 +1464,7 @@
     <t>Spring, Fall</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-05-10/Joy/b7d562-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/36/Dracaena_reflexaSong_of_India1.jpg/220px-Dracaena_reflexaSong_of_India1.jpg</t>
   </si>
   <si>
     <t>Calathea,Pin Stripe Plant</t>
@@ -1489,7 +1489,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-04-12/sedumzz/9e4b5a-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ee/Calathea_ornata.jpg/220px-Calathea_ornata.jpg</t>
   </si>
   <si>
     <t>Ponytail Palm</t>
@@ -1510,7 +1510,7 @@
 Dioecious</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-01-21/Gina1960/2867ba-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Pataelefante.jpg/220px-Pataelefante.jpg</t>
   </si>
   <si>
     <t>ZZ Plant</t>
@@ -1537,7 +1537,7 @@
 Goes Dormant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-06-04/jon/635af4-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cf/Zamioculcas_zamiifolia_1.jpg/220px-Zamioculcas_zamiifolia_1.jpg</t>
   </si>
   <si>
     <t>Fishtail Palm</t>
@@ -1546,7 +1546,7 @@
     <t>Caryota mitis</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-12-12/arctangent/f73508-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/99/Caryota_mitis_leaves.jpg/220px-Caryota_mitis_leaves.jpg</t>
   </si>
   <si>
     <t>Banana Leaf Fig</t>
@@ -1567,7 +1567,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-09-22/plantladylin/1968fe-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Ficus_maclellandii_Alii_%28Ficus_binnendijkii_Alii%29.jpg/220px-Ficus_maclellandii_Alii_%28Ficus_binnendijkii_Alii%29.jpg</t>
   </si>
   <si>
     <t>Pomegranates,Anaar</t>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-11-23/Orsola/36463f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Pomegranate_Fruit_Setting.jpg/220px-Pomegranate_Fruit_Setting.jpg</t>
   </si>
   <si>
     <t>Lemon</t>
@@ -1637,7 +1637,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-10-06/ardesia/49fd25-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/P1030323.JPG/220px-P1030323.JPG</t>
   </si>
   <si>
     <t>Oranges</t>
@@ -1646,7 +1646,7 @@
     <t>Citrus reticulata</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-01-22/qwilter/892d85-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/10/Citrus_reticulata_April_2013_Nordbaden.JPG/220px-Citrus_reticulata_April_2013_Nordbaden.JPG</t>
   </si>
   <si>
     <t>Peaches (Aadu)</t>
@@ -1658,7 +1658,7 @@
     <t>Spring , Early Summer</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-09-14/Blazingstar/a7fcea-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Autumn_Red_peaches.jpg/220px-Autumn_Red_peaches.jpg</t>
   </si>
   <si>
     <t>Cast Iron Plant</t>
@@ -1688,7 +1688,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-05-02/Peggy8b/5f9b6d-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fc/Aspidistra_elatior1.jpg/220px-Aspidistra_elatior1.jpg</t>
   </si>
   <si>
     <t>Wax Plant</t>
@@ -1710,7 +1710,7 @@
 Other: Off and on throughout the year</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-07-30/piksihk/564148-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/NKN-2007-06-13_114250_Hoya_Carnosa_%28Yvan_Leduc_author_for_Wikipedia%29.jpg/220px-NKN-2007-06-13_114250_Hoya_Carnosa_%28Yvan_Leduc_author_for_Wikipedia%29.jpg</t>
   </si>
   <si>
     <t>Parlor Palm</t>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-11-19/HoodLily/c0e726-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/64/Chamaedorea_elegans_Mart.JPG/220px-Chamaedorea_elegans_Mart.JPG</t>
   </si>
   <si>
     <t>String of Pearls</t>
@@ -1754,7 +1754,7 @@
 Winter</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-01-11/Belovedhoneygirl/49b919-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fd/Senecio_rowleyanus_leaves.jpg/220px-Senecio_rowleyanus_leaves.jpg</t>
   </si>
   <si>
     <t>String of Banana</t>
@@ -1771,7 +1771,7 @@
 Fall</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-02-16/GigiPlumeria/959881-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/91/String_of_Bananas.JPG/220px-String_of_Bananas.JPG</t>
   </si>
   <si>
     <t>Burro’s Tail</t>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2011-10-15/tarev/03d60d-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e5/Donkey%27s_tail_in_bloom_March_06.jpg/220px-Donkey%27s_tail_in_bloom_March_06.jpg</t>
   </si>
   <si>
     <t>Baby’s Tears</t>
@@ -1808,7 +1808,7 @@
 Suitable for miniature gardens</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-04-28/Fieldsof_flowers/0b465a-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Soleirolia_soleirolii002.JPG/220px-Soleirolia_soleirolii002.JPG</t>
   </si>
   <si>
     <t>Air Plants</t>
@@ -1828,7 +1828,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-07-16/KFredenburg/028a30-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6a/Tillandsia_fasciculata.jpg/220px-Tillandsia_fasciculata.jpg</t>
   </si>
   <si>
     <t>Bird’s Nest Fern</t>
@@ -1845,7 +1845,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-12-27/arctangent/fece87-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Asplenium_nidus_%28Bukidnon%2C_Philippines%29_02.jpg/220px-Asplenium_nidus_%28Bukidnon%2C_Philippines%29_02.jpg</t>
   </si>
   <si>
     <t>Star Jasmine</t>
@@ -1867,7 +1867,7 @@
     <t>Deer Resistant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-05-04/carlysuko/192af1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/92/Trachelospermum_jasminoides1215878198.jpg/220px-Trachelospermum_jasminoides1215878198.jpg</t>
   </si>
   <si>
     <t>Bleeding Heart Vine</t>
@@ -1892,7 +1892,7 @@
 Other: Sporadically year-round but most prolific during the warm months.</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-11-29/jathton/2e969d-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e2/Clerodendron_thomsoniae1.jpg/220px-Clerodendron_thomsoniae1.jpg</t>
   </si>
   <si>
     <t>Nasturtium, Empress of India</t>
@@ -1909,7 +1909,7 @@
 Medicinal Herb</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2011-11-20/Calif_Sue/ea4854-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/87/Tropaeolum_majus_2005_G1.jpg/220px-Tropaeolum_majus_2005_G1.jpg</t>
   </si>
   <si>
     <t>Flame Vine</t>
@@ -1933,7 +1933,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-05-23/nickcampbell/57e477-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Pyrostegia_venusta3.JPG/220px-Pyrostegia_venusta3.JPG</t>
   </si>
   <si>
     <t>Climbing Roses</t>
@@ -1945,7 +1945,7 @@
     <t>Late spring or early summer</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-11-15/SongofJoy/7bf4e5-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Rosa_setigera.jpg/220px-Rosa_setigera.jpg</t>
   </si>
   <si>
     <t>Blue Passion Flower, krishna kamal</t>
@@ -1960,7 +1960,7 @@
     <t xml:space="preserve">	Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-04-13/cocoajuno/24e281-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Passiflora_caerulea_%282019-06-24%29_frontal-view.jpg/220px-Passiflora_caerulea_%282019-06-24%29_frontal-view.jpg</t>
   </si>
   <si>
     <t>Rangoon Creeper, Madhumalti, Chinese honeysuckle</t>
@@ -1976,7 +1976,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-10-03/GrammaChar/ebde33-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Combretum_indicum_01.JPG/220px-Combretum_indicum_01.JPG</t>
   </si>
   <si>
     <t>Honeysuckle</t>
@@ -1994,7 +1994,7 @@
 Will Naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-05-05/SongofJoy/da8b9f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3b/European_honeysuckle_800.jpg/220px-European_honeysuckle_800.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Paan, Betel Leaf, Piper betle
@@ -2010,7 +2010,7 @@
     <t>Eating</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-11-27/sedumzz/c0dff3-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/99/Piper_betle_plant.jpg/220px-Piper_betle_plant.jpg</t>
   </si>
   <si>
     <t>Coleus</t>
@@ -2029,7 +2029,7 @@
 Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-12-15/GigiPlumeria/4141b0-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1d/Plectranthus_scutellarioides_-_El_Yunque_nat_park_PR_IMG_2120.JPG/220px-Plectranthus_scutellarioides_-_El_Yunque_nat_park_PR_IMG_2120.JPG</t>
   </si>
   <si>
     <t>Persian Shield</t>
@@ -2047,7 +2047,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-04-01/ArtD/aaddcd-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Persian_Shield_Night.jpg/220px-Persian_Shield_Night.jpg</t>
   </si>
   <si>
     <t>Rhizomatous Begonia</t>
@@ -2063,7 +2063,7 @@
 Neutral (6.6 – 7.3)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-10-26/LorettaNJ/8a6629-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Begonia_soli-mutata_2zz.jpg/220px-Begonia_soli-mutata_2zz.jpg</t>
   </si>
   <si>
     <t>Bunny Ear Cactus</t>
@@ -2089,7 +2089,7 @@
 With thorns/spines/prickles/teeth</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-07-15/Kaktus/7ec8a1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/36/Opuntia_microdasys_3.jpg/220px-Opuntia_microdasys_3.jpg</t>
   </si>
   <si>
     <t>Foxglove, Fairy's glove, Lady's glove</t>
@@ -2112,7 +2112,7 @@
 Will Naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-07-03/Calif_Sue/9fb0e0-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a1/Digitalis_purpurea_-_flower_view01.jpg/220px-Digitalis_purpurea_-_flower_view01.jpg</t>
   </si>
   <si>
     <t>Peace Lily, Spathiphyllum</t>
@@ -2121,7 +2121,7 @@
     <t>Spathiphyllum wallisii</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-01-08/robertduval14/8dc9bb-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Peace_lily_-_1_-_cropped.jpg/220px-Peace_lily_-_1_-_cropped.jpg</t>
   </si>
   <si>
     <t>Caladium</t>
@@ -2137,7 +2137,7 @@
     <t>All parts of plant contain calcium oxalate crystals, an irritant to the mouth and esophagus. Toxic to cats and dogs.</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-08-31/plantmanager/ddf819-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f1/Caladium_schomburgkii_changjur-1-yercaud-salem-India.JPG/220px-Caladium_schomburgkii_changjur-1-yercaud-salem-India.JPG</t>
   </si>
   <si>
     <t>Nerve Plant, mosaic plant</t>
@@ -2157,7 +2157,7 @@
 Suitable for miniature gardens</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-11-04/PlantsRFriends/a15454-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/72/Colpfl25.jpg/220px-Colpfl25.jpg</t>
   </si>
   <si>
     <t>Spearmint</t>
@@ -2174,7 +2174,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-06-22/TBGDN/a972e4-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Minze.jpg/220px-Minze.jpg</t>
   </si>
   <si>
     <t>Ashwagandha</t>
@@ -2186,7 +2186,7 @@
     <t>Medicinal Herb</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-03-16/_Bleu_/9a2c3b-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ad/WithaniaFruit.jpg/220px-WithaniaFruit.jpg</t>
   </si>
   <si>
     <t>Giloy</t>
@@ -2210,7 +2210,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-05-17/Dinu/900ef6-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0e/Tinospora_cordifolia.jpg/220px-Tinospora_cordifolia.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Adenium,Desert Rose
@@ -2231,7 +2231,7 @@
 Late fall or early winter</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-12-17/piksihk/3b91e8-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4a/Adenium_Obesum_Flower_Side_Macro_Mar22_D72_23052-58_ZS_P.jpg/220px-Adenium_Obesum_Flower_Side_Macro_Mar22_D72_23052-58_ZS_P.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Amaryllis Lily,Queen Lily,Mexican Lily
@@ -2253,7 +2253,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2017-10-06/HamiltonSquare/118d2f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Amaryllis_belladonna.jpg/220px-Amaryllis_belladonna.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Rajnigandha,Tuberose
@@ -2275,7 +2275,7 @@
 Goes Dormant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-02-15/Gleni/c359dd-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Tuberose_flower.jpg/220px-Tuberose_flower.jpg</t>
   </si>
   <si>
     <t>9 o’clock Flower,Moss Rose</t>
@@ -2297,6 +2297,9 @@
 </t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/98/PortulacaGrandiflora.jpg/220px-PortulacaGrandiflora.jpg</t>
+  </si>
+  <si>
     <t>Chick Peas, Chana ka dal</t>
   </si>
   <si>
@@ -2313,7 +2316,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-02-10/robertduval14/23884d-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/23/Chickpeas_Plant.jpg/150px-Chickpeas_Plant.jpg</t>
   </si>
   <si>
     <t>Green Chilli</t>
@@ -2327,6 +2330,9 @@
 Neutral (6.6 – 7.3)</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Capsicum_annum_L._var._fasciculatum_Irish.jpg/120px-Capsicum_annum_L._var._fasciculatum_Irish.jpg</t>
+  </si>
+  <si>
     <t>Bottle Gourd, Lauki</t>
   </si>
   <si>
@@ -2336,7 +2342,7 @@
     <t>monoecious</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-10-13/Paul2032/f93af1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2d/JfPasongBangkal8236SanRafaelfvf_23.JPG/90px-JfPasongBangkal8236SanRafaelfvf_23.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Cape Jasmine,Gandharaj
@@ -2365,7 +2371,7 @@
 Humidity tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2017-11-25/BarbandDave/9056b5-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/%E0%A6%A4%E0%A6%97%E0%A7%B0_%E0%A6%AB%E0%A7%81%E0%A6%B2_Gardenia_jasminoides.jpg/200px-%E0%A6%A4%E0%A6%97%E0%A7%B0_%E0%A6%AB%E0%A7%81%E0%A6%B2_Gardenia_jasminoides.jpg</t>
   </si>
   <si>
     <t>Indigo</t>
@@ -2377,7 +2383,7 @@
     <t>Dye production</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-06-27/plantrob/67c4b0-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3a/Indigofera_tinctoria1.jpg/220px-Indigofera_tinctoria1.jpg</t>
   </si>
   <si>
     <t>Plumeria, Champa, Frangipani, Deva Ganneru, Gulachin, Golchi, Kathgolop, Chafa</t>
@@ -2397,7 +2403,7 @@
     <t>Early summer until fall</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-09-02/GigiPlumeria/a2d987-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2e/Frangipani_Bugibba_Malta.jpg/220px-Frangipani_Bugibba_Malta.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Purslane,Pigweed
@@ -2426,7 +2432,7 @@
 Salt tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-06-02/hlutzow/1d4b47-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Portulaca_%2823559906595%29.jpg/220px-Portulaca_%2823559906595%29.jpg</t>
   </si>
   <si>
     <t>Polka Dot Plant</t>
@@ -2443,7 +2449,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-03-17/RuuddeBlock/86e6b0-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/43/Starr_080117-1693_Hypoestes_phyllostachya.jpg/220px-Starr_080117-1693_Hypoestes_phyllostachya.jpg</t>
   </si>
   <si>
     <t>Rex Begonia, Begonia</t>
@@ -2456,7 +2462,7 @@
 Partial Shade to Full Shade</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-09-28/MySecretIslandGarden/ec18dc-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4e/%E8%9B%A4%E8%9F%86%E7%A7%8B%E6%B5%B7%E6%A3%A0-%E9%9B%84%E8%8A%B1_Begonia_rex_%27Red_Tango%27_-%E9%A6%99%E6%B8%AF%E5%85%AC%E5%9C%92_Hong_Kong_Park-_%2837422677575%29.jpg/220px-%E8%9B%A4%E8%9F%86%E7%A7%8B%E6%B5%B7%E6%A3%A0-%E9%9B%84%E8%8A%B1_Begonia_rex_%27Red_Tango%27_-%E9%A6%99%E6%B8%AF%E5%85%AC%E5%9C%92_Hong_Kong_Park-_%2837422677575%29.jpg</t>
   </si>
   <si>
     <t>Red Amaranth</t>
@@ -2469,7 +2475,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-01-12/SongofJoy/d9c636-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1e/Amaranthus_cruentus_Foxtail_2.jpg/120px-Amaranthus_cruentus_Foxtail_2.jpg</t>
   </si>
   <si>
     <t>Arrowhead Plant</t>
@@ -2481,7 +2487,7 @@
     <t>Moderately acid (5.6 – 6.0), Slightly acid (6.1 – 6.5)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-03-17/plantladylin/90e670-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/58/Zingiber_malaysianum.jpg/220px-Zingiber_malaysianum.jpg</t>
   </si>
   <si>
     <t>Cholla, Cane Cactus</t>
@@ -2505,7 +2511,7 @@
 With thorns/spines/prickles/teeth</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2016-05-16/plantmanager/7e7a03-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Cylindroputnia_imbricata.jpg/185px-Cylindroputnia_imbricata.jpg</t>
   </si>
   <si>
     <t>Moon Cactus</t>
@@ -2517,7 +2523,7 @@
     <t>Moderately acid (5.6 – 6.0), Slightly acid (6.1 – 6.5), Neutral (6.6 – 7.3)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-08-17/Jai_Ganesha/d64c4d-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/39/Gymnocalycium_mihanovichii_2.JPG/220px-Gymnocalycium_mihanovichii_2.JPG</t>
   </si>
   <si>
     <t>Golden Barrel Cactus</t>
@@ -2532,7 +2538,7 @@
     <t>Endangered, With thorns/spines/prickles/teeth</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-01-07/Baja_Costero/87447f-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/25/Echinocactus_grusonii_%28aka%29.jpg/220px-Echinocactus_grusonii_%28aka%29.jpg</t>
   </si>
   <si>
     <t>Prickly Pear Cactus / Barbary Fig/ Indian Fig</t>
@@ -2548,7 +2554,7 @@
 Slightly acid (6.1 – 6.5)</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-08-08/lasertrimguy/086f64-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cf/San_Miguel_de_Allende_%28Mexico%2C_November_2018%29_-_106_%2850998375682%29.jpg/220px-San_Miguel_de_Allende_%28Mexico%2C_November_2018%29_-_106_%2850998375682%29.jpg</t>
   </si>
   <si>
     <t>Star Cactus</t>
@@ -2561,7 +2567,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-06-06/HamiltonSquare/9dbf86-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Astrophytum_asterias_nudum.JPG/220px-Astrophytum_asterias_nudum.JPG</t>
   </si>
   <si>
     <t xml:space="preserve">Fishbone Cactus,Zig Zag Cactus
@@ -2576,7 +2582,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-11-17/carlysuko/25b367-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/47/Epiphyllum_anguliger1Emma_Lindahl.jpg/330px-Epiphyllum_anguliger1Emma_Lindahl.jpg</t>
   </si>
   <si>
     <t>Old Lady Cactus</t>
@@ -2585,7 +2591,7 @@
     <t>Mammillaria hahniana</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-12-27/jooshewa/127c1f-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Mammillaria_hahniana.jpg/330px-Mammillaria_hahniana.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Golden Lace Cactus, Ladyfinger Cactus
@@ -2606,7 +2612,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-05-15/skopjecollection/6191de-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/50/MammillariaElongata2.jpg/330px-MammillariaElongata2.jpg</t>
   </si>
   <si>
     <t>White Ghost Candelabra Spurge</t>
@@ -2621,7 +2627,7 @@
     <t>Ornamental</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-11-12/jathton/0025bf-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/39/E_lactea_ies.jpg/330px-E_lactea_ies.jpg</t>
   </si>
   <si>
     <t>Notocactus Rutilans</t>
@@ -2633,7 +2639,7 @@
     <t>Late Spring,Early Summer</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-06-29/Orsola/a07a34-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/16/Notocactus_Magnificus%2C_Huntington_Desert_Garden.jpg/330px-Notocactus_Magnificus%2C_Huntington_Desert_Garden.jpg</t>
   </si>
   <si>
     <t>Ginger</t>
@@ -2652,7 +2658,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-04-30/treehugger/3cd0f7-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/18/Koeh-146-no_text.jpg/330px-Koeh-146-no_text.jpg</t>
   </si>
   <si>
     <t>Stevia</t>
@@ -2666,7 +2672,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-09-29/BlueOddish/7b66dc-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Stevia_plant.jpg/330px-Stevia_plant.jpg</t>
   </si>
   <si>
     <t>Bromeliads</t>
@@ -2680,7 +2686,7 @@
 Shrub</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-01-04/arctangent/76b597-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Pineapple1.JPG/330px-Pineapple1.JPG</t>
   </si>
   <si>
     <t>Barberton Daisy,Gerbera Daisy</t>
@@ -2692,7 +2698,7 @@
     <t>Late spring through autumn</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-01-05/Paul2032/c835b1-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0b/Gerbera_jamesonii_%28Asteraceae%29.jpg/330px-Gerbera_jamesonii_%28Asteraceae%29.jpg</t>
   </si>
   <si>
     <t>Climbing Fig</t>
@@ -2714,7 +2720,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2023-02-06/purpleinopp/ffccca-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Ficus_pumila_%28Leafs%29.jpg/330px-Ficus_pumila_%28Leafs%29.jpg</t>
   </si>
   <si>
     <t>Peacock Plant</t>
@@ -2723,7 +2729,7 @@
     <t>Goeppertia makoyana</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-09-14/sunkissed/98f60e-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ae/CalatheaMakoyana.jpg/330px-CalatheaMakoyana.jpg</t>
   </si>
   <si>
     <t>Orchids</t>
@@ -2748,7 +2754,7 @@
 Winter</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-02-08/BlueOddish/bf1a43-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2a/White_orchid_in_Clara_bog._03.jpg/330px-White_orchid_in_Clara_bog._03.jpg</t>
   </si>
   <si>
     <t>Garlic,Lahsun</t>
@@ -2760,7 +2766,7 @@
     <t xml:space="preserve"> Early summer to autumn</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-07-10/jooshewa/98e7ad-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/39/Allium_sativum_Woodwill_1793.jpg</t>
   </si>
   <si>
     <t>Jeera,Cumin seed</t>
@@ -2775,7 +2781,7 @@
     <t>Monocarpic</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2019-09-12/janinilulu/807505-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/58/Cuminum_cyminum_-_K%C3%B6hler%E2%80%93s_Medizinal-Pflanzen-198.jpg/330px-Cuminum_cyminum_-_K%C3%B6hler%E2%80%93s_Medizinal-Pflanzen-198.jpg</t>
   </si>
   <si>
     <t>Turai,Ridge Gourd</t>
@@ -2784,7 +2790,7 @@
     <t>Luffa acutangula</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-09-08/piksihk/b6f7fc-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Luffa_aegyptica.jpg/330px-Luffa_aegyptica.jpg</t>
   </si>
   <si>
     <t>Christmas Cactus</t>
@@ -2804,7 +2810,7 @@
 Epiphytic</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2020-12-10/Fleur569/5b5418-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ef/Cactus_de_no%C3%ABl_rev.jpg/330px-Cactus_de_no%C3%ABl_rev.jpg</t>
   </si>
   <si>
     <t>Dahlia</t>
@@ -2816,7 +2822,7 @@
     <t>Late winter , Spring</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-01-28/DaylilySLP/af6826-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ab/Dahlia_x_hybrida.jpg/330px-Dahlia_x_hybrida.jpg</t>
   </si>
   <si>
     <t>Pansy</t>
@@ -2833,7 +2839,7 @@
 Late fall or early winter</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2017-12-05/tofitropic/f97d05-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Pansy_Flower.jpg/330px-Pansy_Flower.jpg</t>
   </si>
   <si>
     <t>Zinnia</t>
@@ -2847,7 +2853,7 @@
 Suitable for miniature gardens</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2021-12-17/scvirginia/3832be-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6e/Zinnienbl%C3%BCte_Zinnia_elegans_stack15_20190722-RM-7222254.jpg/330px-Zinnienbl%C3%BCte_Zinnia_elegans_stack15_20190722-RM-7222254.jpg</t>
   </si>
   <si>
     <t>Daffodil, Nargis</t>
@@ -2878,7 +2884,7 @@
 Roots are poisonous        Goes Dormant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-04-02/sandnsea2/2a2aed-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Narcissus-tazetta-0006a.jpg/330px-Narcissus-tazetta-0006a.jpg</t>
   </si>
   <si>
     <t>Primrose</t>
@@ -2887,7 +2893,7 @@
     <t>Primula vulgaris</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2022-05-17/IrisLilli/2d8677-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Prole%C4%87no_cve%C4%87e_3.JPG/330px-Prole%C4%87no_cve%C4%87e_3.JPG</t>
   </si>
   <si>
     <t>Petunia, Malati, Sandhya</t>
@@ -2903,7 +2909,7 @@
 Suitable as Annual</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-07-12/poisondartfrog/577480-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Petunia_exserta_by_Scott_Zona_-_004_%281%29.jpg/330px-Petunia_exserta_by_Scott_Zona_-_004_%281%29.jpg</t>
   </si>
   <si>
     <t>Peonies</t>
@@ -2913,7 +2919,7 @@
 </t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-05-24/Fleur569/d9e056-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fd/PaeoniaSuffruticosa7.jpg/330px-PaeoniaSuffruticosa7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve"> Lilies, Asiatic Lily</t>
@@ -2926,7 +2932,7 @@
 "</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2013-11-19/pirl/679e36-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/30/Lilium_candidum_1.jpg/330px-Lilium_candidum_1.jpg</t>
   </si>
   <si>
     <t>Kale</t>
@@ -2940,7 +2946,7 @@
 Cooked greens</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2012-09-06/Paul2032/8cd067-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Boerenkool.jpg/330px-Boerenkool.jpg</t>
   </si>
   <si>
     <t>Arugula</t>
@@ -2965,7 +2971,7 @@
 Will Naturalize</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-05-22/dirtdorphins/739b7b-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/50/Eruca_vesicaria_re.jpg/330px-Eruca_vesicaria_re.jpg</t>
   </si>
   <si>
     <t>Mustard Greens</t>
@@ -2974,7 +2980,7 @@
     <t>Brassica juncea</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2018-08-14/RuuddeBlock/086af8-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/42/Brassica_juncea_-_K%C3%B6hler%E2%80%93s_Medizinal-Pflanzen-168.jpg/330px-Brassica_juncea_-_K%C3%B6hler%E2%80%93s_Medizinal-Pflanzen-168.jpg</t>
   </si>
   <si>
     <t>Lettuce</t>
@@ -2987,7 +2993,7 @@
 Salad greens</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-06-18/TBGDN/487054-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/Iceberg_lettuce_in_SB.jpg/330px-Iceberg_lettuce_in_SB.jpg</t>
   </si>
   <si>
     <t>Yarrow</t>
@@ -3010,7 +3016,7 @@
 Drought tolerant</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2014-05-24/wildflowers/5df50c-250.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4e/Achillea_millefolium_5Dsr_9042.jpg/330px-Achillea_millefolium_5Dsr_9042.jpg</t>
   </si>
   <si>
     <t>Spinach</t>
@@ -3026,7 +3032,7 @@
     <t>10-21°C</t>
   </si>
   <si>
-    <t>https://garden.org/pics/2015-04-15/farmerdill/383e00-500.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/37/Spinacia_oleracea_Spinazie_bloeiend.jpg/330px-Spinacia_oleracea_Spinazie_bloeiend.jpg</t>
   </si>
 </sst>
 </file>
@@ -3070,6 +3076,18 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
@@ -3097,12 +3115,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF454545"/>
       <name val="Calibri"/>
@@ -3110,12 +3122,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF212529"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3283,22 +3289,28 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3313,13 +3325,10 @@
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3331,55 +3340,52 @@
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3391,46 +3397,46 @@
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3688,8 +3694,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="0.43"/>
-    <col customWidth="1" min="2" max="2" width="20.86"/>
-    <col customWidth="1" min="3" max="3" width="3.57"/>
+    <col customWidth="1" min="2" max="2" width="30.43"/>
+    <col customWidth="1" min="3" max="3" width="22.14"/>
     <col customWidth="1" min="4" max="4" width="6.0"/>
     <col customWidth="1" min="5" max="5" width="3.29"/>
     <col customWidth="1" min="6" max="6" width="10.86"/>
@@ -3915,7 +3921,7 @@
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="27" t="s">
         <v>41</v>
       </c>
       <c r="V3" s="23"/>
@@ -3982,7 +3988,7 @@
       </c>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="27" t="s">
         <v>48</v>
       </c>
       <c r="V4" s="23"/>
@@ -4055,7 +4061,7 @@
       <c r="T5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="27" t="s">
         <v>58</v>
       </c>
       <c r="V5" s="23"/>
@@ -4128,7 +4134,7 @@
       <c r="T6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="U6" s="28" t="s">
         <v>68</v>
       </c>
       <c r="V6" s="23"/>
@@ -4165,7 +4171,7 @@
         <v>52</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="25">
@@ -4341,7 +4347,7 @@
         <v>83</v>
       </c>
       <c r="T9" s="23"/>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="27" t="s">
         <v>92</v>
       </c>
       <c r="V9" s="23"/>
@@ -4368,7 +4374,7 @@
       <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -4441,7 +4447,7 @@
       <c r="D11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="16" t="s">
@@ -4506,7 +4512,7 @@
       <c r="D12" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -4550,7 +4556,7 @@
       <c r="T12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U12" s="22" t="s">
+      <c r="U12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="V12" s="23"/>
@@ -4577,7 +4583,7 @@
       <c r="D13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="16" t="s">
@@ -4610,7 +4616,7 @@
       <c r="O13" s="11">
         <v>25.0</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="31">
         <v>8.0</v>
       </c>
       <c r="Q13" s="15" t="s">
@@ -4650,7 +4656,7 @@
       <c r="D14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="16" t="s">
@@ -4723,7 +4729,7 @@
       <c r="D15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -4792,7 +4798,7 @@
       <c r="D16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -4858,7 +4864,7 @@
       <c r="A17" s="11">
         <v>16.0</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -4867,7 +4873,7 @@
       <c r="D17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="16" t="s">
@@ -4929,7 +4935,7 @@
       <c r="A18" s="11">
         <v>17.0</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="32" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4938,7 +4944,7 @@
       <c r="D18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -4950,13 +4956,13 @@
       <c r="H18" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="34">
         <v>6.6</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="34">
         <v>7.8</v>
       </c>
       <c r="L18" s="19" t="s">
@@ -4980,7 +4986,7 @@
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
-      <c r="U18" s="22" t="s">
+      <c r="U18" s="27" t="s">
         <v>142</v>
       </c>
       <c r="V18" s="23"/>
@@ -4998,7 +5004,7 @@
       <c r="A19" s="11">
         <v>18.0</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>143</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -5007,7 +5013,7 @@
       <c r="D19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -5019,13 +5025,13 @@
       <c r="H19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="34">
         <v>6.1</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="34">
         <v>6.5</v>
       </c>
       <c r="L19" s="26"/>
@@ -5047,7 +5053,7 @@
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="22" t="s">
+      <c r="U19" s="27" t="s">
         <v>145</v>
       </c>
       <c r="V19" s="23"/>
@@ -5074,7 +5080,7 @@
       <c r="D20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -5120,7 +5126,7 @@
         <v>150</v>
       </c>
       <c r="T20" s="23"/>
-      <c r="U20" s="22" t="s">
+      <c r="U20" s="27" t="s">
         <v>151</v>
       </c>
       <c r="V20" s="23"/>
@@ -5147,13 +5153,13 @@
       <c r="D21" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -5191,7 +5197,7 @@
         <v>83</v>
       </c>
       <c r="T21" s="23"/>
-      <c r="U21" s="22" t="s">
+      <c r="U21" s="27" t="s">
         <v>159</v>
       </c>
       <c r="V21" s="23"/>
@@ -5209,7 +5215,7 @@
       <c r="A22" s="11">
         <v>21.0</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -5278,7 +5284,7 @@
       <c r="A23" s="11">
         <v>22.0</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>165</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -5293,7 +5299,7 @@
       <c r="F23" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="35" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="15" t="s">
@@ -5495,7 +5501,7 @@
       <c r="A26" s="11">
         <v>25.0</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>187</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -5504,7 +5510,7 @@
       <c r="D26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -5566,7 +5572,7 @@
       <c r="A27" s="11">
         <v>26.0</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>193</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -5575,7 +5581,7 @@
       <c r="D27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="16" t="s">
@@ -5641,7 +5647,7 @@
       <c r="A28" s="11">
         <v>27.0</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -5650,7 +5656,7 @@
       <c r="D28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -5671,7 +5677,7 @@
       <c r="K28" s="18">
         <v>7.8</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="38" t="s">
         <v>113</v>
       </c>
       <c r="M28" s="21">
@@ -5723,7 +5729,7 @@
       <c r="D29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="16" t="s">
@@ -5794,7 +5800,7 @@
       <c r="D30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="16" t="s">
@@ -5863,7 +5869,7 @@
       <c r="D31" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="16" t="s">
@@ -5978,7 +5984,7 @@
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
-      <c r="U32" s="22" t="s">
+      <c r="U32" s="27" t="s">
         <v>231</v>
       </c>
       <c r="V32" s="23"/>
@@ -6049,7 +6055,7 @@
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
-      <c r="U33" s="37" t="s">
+      <c r="U33" s="22" t="s">
         <v>239</v>
       </c>
       <c r="V33" s="23"/>
@@ -6211,7 +6217,7 @@
       <c r="A36" s="11">
         <v>35.0</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>253</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -6299,7 +6305,7 @@
       <c r="F37" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H37" s="15" t="s">
@@ -6374,7 +6380,7 @@
       <c r="F38" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -6508,7 +6514,7 @@
       <c r="D40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="16" t="s">
@@ -6579,7 +6585,7 @@
       <c r="D41" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="42" t="s">
         <v>227</v>
       </c>
       <c r="F41" s="16" t="s">
@@ -6715,7 +6721,7 @@
       <c r="B43" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="43" t="s">
         <v>300</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -6782,13 +6788,13 @@
       <c r="B44" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="43" t="s">
         <v>304</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="44" t="s">
         <v>61</v>
       </c>
       <c r="F44" s="16" t="s">
@@ -6823,7 +6829,7 @@
         <v>1.0</v>
       </c>
       <c r="Q44" s="23"/>
-      <c r="R44" s="43" t="s">
+      <c r="R44" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S44" s="23"/>
@@ -6849,13 +6855,13 @@
       <c r="B45" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="43" t="s">
         <v>307</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="44" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="16" t="s">
@@ -6867,7 +6873,7 @@
       <c r="H45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="29" t="s">
         <v>184</v>
       </c>
       <c r="J45" s="25">
@@ -6890,7 +6896,7 @@
         <v>0.25</v>
       </c>
       <c r="Q45" s="23"/>
-      <c r="R45" s="43" t="s">
+      <c r="R45" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S45" s="23"/>
@@ -6916,13 +6922,13 @@
       <c r="B46" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="44" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="16" t="s">
@@ -6934,7 +6940,7 @@
       <c r="H46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I46" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J46" s="25">
@@ -6957,7 +6963,7 @@
         <v>2.0</v>
       </c>
       <c r="Q46" s="23"/>
-      <c r="R46" s="43" t="s">
+      <c r="R46" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S46" s="23"/>
@@ -6980,7 +6986,7 @@
       <c r="A47" s="11">
         <v>46.0</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="32" t="s">
         <v>312</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -6989,13 +6995,13 @@
       <c r="D47" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="47" t="s">
         <v>52</v>
       </c>
       <c r="H47" s="15" t="s">
@@ -7010,25 +7016,25 @@
       <c r="K47" s="18">
         <v>7.3</v>
       </c>
-      <c r="L47" s="47" t="s">
+      <c r="L47" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="M47" s="48">
+      <c r="M47" s="49">
         <v>15.0</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="49">
         <v>20.0</v>
       </c>
-      <c r="O47" s="48">
+      <c r="O47" s="49">
         <v>2.0</v>
       </c>
       <c r="P47" s="11">
         <v>0.75</v>
       </c>
-      <c r="Q47" s="44" t="s">
+      <c r="Q47" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="R47" s="43" t="s">
+      <c r="R47" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S47" s="23"/>
@@ -7051,10 +7057,10 @@
       <c r="A48" s="11">
         <v>47.0</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="50" t="s">
         <v>319</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -7081,13 +7087,13 @@
       <c r="K48" s="18">
         <v>7.3</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="M48" s="48">
+      <c r="M48" s="49">
         <v>21.0</v>
       </c>
-      <c r="N48" s="48">
+      <c r="N48" s="49">
         <v>27.0</v>
       </c>
       <c r="O48" s="11">
@@ -7096,10 +7102,10 @@
       <c r="P48" s="11">
         <v>1.5</v>
       </c>
-      <c r="Q48" s="44" t="s">
+      <c r="Q48" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="R48" s="43" t="s">
+      <c r="R48" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S48" s="23"/>
@@ -7122,7 +7128,7 @@
       <c r="A49" s="11">
         <v>48.0</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="32" t="s">
         <v>322</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -7152,24 +7158,24 @@
       <c r="K49" s="18">
         <v>7.3</v>
       </c>
-      <c r="L49" s="51"/>
-      <c r="M49" s="52">
+      <c r="L49" s="52"/>
+      <c r="M49" s="53">
         <v>18.0</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="53">
         <v>21.0</v>
       </c>
-      <c r="O49" s="53">
+      <c r="O49" s="54">
         <v>1.5</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P49" s="54">
         <v>2.0</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="43" t="s">
+      <c r="Q49" s="45"/>
+      <c r="R49" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="S49" s="54" t="s">
+      <c r="S49" s="55" t="s">
         <v>83</v>
       </c>
       <c r="T49" s="23"/>
@@ -7191,7 +7197,7 @@
       <c r="A50" s="11">
         <v>49.0</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="32" t="s">
         <v>326</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -7221,11 +7227,11 @@
       <c r="K50" s="18">
         <v>7.3</v>
       </c>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52">
+      <c r="L50" s="52"/>
+      <c r="M50" s="53">
         <v>13.0</v>
       </c>
-      <c r="N50" s="52">
+      <c r="N50" s="53">
         <v>25.0</v>
       </c>
       <c r="O50" s="11">
@@ -7237,7 +7243,7 @@
       <c r="Q50" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="R50" s="43" t="s">
+      <c r="R50" s="44" t="s">
         <v>301</v>
       </c>
       <c r="S50" s="23"/>
@@ -7260,10 +7266,10 @@
       <c r="A51" s="11">
         <v>50.0</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="43" t="s">
         <v>330</v>
       </c>
       <c r="D51" s="15" t="s">
@@ -7297,19 +7303,19 @@
       <c r="N51" s="20">
         <v>20.0</v>
       </c>
-      <c r="O51" s="52">
+      <c r="O51" s="53">
         <v>2.0</v>
       </c>
-      <c r="P51" s="52">
+      <c r="P51" s="53">
         <v>1.5</v>
       </c>
       <c r="Q51" s="23"/>
-      <c r="R51" s="43" t="s">
+      <c r="R51" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="S51" s="55"/>
+      <c r="S51" s="56"/>
       <c r="T51" s="23"/>
-      <c r="U51" s="22" t="s">
+      <c r="U51" s="27" t="s">
         <v>331</v>
       </c>
       <c r="V51" s="23"/>
@@ -7327,10 +7333,10 @@
       <c r="A52" s="11">
         <v>51.0</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="43" t="s">
         <v>333</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -7364,7 +7370,7 @@
       <c r="N52" s="20">
         <v>30.0</v>
       </c>
-      <c r="O52" s="53">
+      <c r="O52" s="54">
         <v>0.5</v>
       </c>
       <c r="P52" s="11">
@@ -7378,7 +7384,7 @@
       <c r="T52" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="U52" s="22" t="s">
+      <c r="U52" s="27" t="s">
         <v>335</v>
       </c>
       <c r="V52" s="23"/>
@@ -7396,10 +7402,10 @@
       <c r="A53" s="11">
         <v>52.0</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="43" t="s">
         <v>337</v>
       </c>
       <c r="D53" s="15" t="s">
@@ -7449,7 +7455,7 @@
         <v>340</v>
       </c>
       <c r="T53" s="23"/>
-      <c r="U53" s="22" t="s">
+      <c r="U53" s="27" t="s">
         <v>341</v>
       </c>
       <c r="V53" s="23"/>
@@ -7467,7 +7473,7 @@
       <c r="A54" s="11">
         <v>53.0</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="32" t="s">
         <v>342</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -7522,7 +7528,7 @@
       <c r="T54" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="U54" s="56" t="s">
+      <c r="U54" s="27" t="s">
         <v>346</v>
       </c>
       <c r="V54" s="23"/>
@@ -7540,7 +7546,7 @@
       <c r="A55" s="11">
         <v>54.0</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="32" t="s">
         <v>347</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -7609,7 +7615,7 @@
       <c r="A56" s="11">
         <v>55.0</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="32" t="s">
         <v>351</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -7660,7 +7666,7 @@
         <v>355</v>
       </c>
       <c r="T56" s="23"/>
-      <c r="U56" s="22" t="s">
+      <c r="U56" s="28" t="s">
         <v>356</v>
       </c>
       <c r="V56" s="23"/>
@@ -7727,7 +7733,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
-      <c r="U57" s="22" t="s">
+      <c r="U57" s="28" t="s">
         <v>361</v>
       </c>
       <c r="V57" s="23"/>
@@ -7745,7 +7751,7 @@
       <c r="A58" s="11">
         <v>57.0</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>362</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -7802,7 +7808,7 @@
       <c r="T58" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="U58" s="22" t="s">
+      <c r="U58" s="28" t="s">
         <v>367</v>
       </c>
       <c r="V58" s="23"/>
@@ -7820,7 +7826,7 @@
       <c r="A59" s="11">
         <v>58.0</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="32" t="s">
         <v>368</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -7877,7 +7883,7 @@
       <c r="T59" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="U59" s="22" t="s">
+      <c r="U59" s="28" t="s">
         <v>373</v>
       </c>
       <c r="V59" s="23"/>
@@ -7895,16 +7901,16 @@
       <c r="A60" s="11">
         <v>59.0</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -7952,7 +7958,7 @@
       <c r="T60" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="U60" s="22" t="s">
+      <c r="U60" s="28" t="s">
         <v>381</v>
       </c>
       <c r="V60" s="23"/>
@@ -7970,16 +7976,16 @@
       <c r="A61" s="11">
         <v>60.0</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="43" t="s">
         <v>383</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="16" t="s">
@@ -8023,7 +8029,7 @@
       </c>
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
-      <c r="U61" s="22" t="s">
+      <c r="U61" s="28" t="s">
         <v>387</v>
       </c>
       <c r="V61" s="23"/>
@@ -8041,22 +8047,22 @@
       <c r="A62" s="11">
         <v>61.0</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="43" t="s">
         <v>389</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G62" s="40" t="s">
         <v>119</v>
       </c>
       <c r="H62" s="15" t="s">
@@ -8098,7 +8104,7 @@
       <c r="T62" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="U62" s="22" t="s">
+      <c r="U62" s="28" t="s">
         <v>397</v>
       </c>
       <c r="V62" s="23"/>
@@ -8116,22 +8122,22 @@
       <c r="A63" s="11">
         <v>62.0</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="43" t="s">
         <v>399</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -8169,7 +8175,7 @@
         <v>267</v>
       </c>
       <c r="T63" s="23"/>
-      <c r="U63" s="22" t="s">
+      <c r="U63" s="28" t="s">
         <v>401</v>
       </c>
       <c r="V63" s="23"/>
@@ -8187,7 +8193,7 @@
       <c r="A64" s="11">
         <v>63.0</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="32" t="s">
         <v>402</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -8242,7 +8248,7 @@
         <v>407</v>
       </c>
       <c r="T64" s="23"/>
-      <c r="U64" s="22" t="s">
+      <c r="U64" s="28" t="s">
         <v>408</v>
       </c>
       <c r="V64" s="23"/>
@@ -8260,10 +8266,10 @@
       <c r="A65" s="11">
         <v>64.0</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="43" t="s">
         <v>410</v>
       </c>
       <c r="D65" s="15" t="s">
@@ -8317,7 +8323,7 @@
       <c r="T65" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="U65" s="22" t="s">
+      <c r="U65" s="28" t="s">
         <v>414</v>
       </c>
       <c r="V65" s="23"/>
@@ -8335,10 +8341,10 @@
       <c r="A66" s="11">
         <v>65.0</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="43" t="s">
         <v>416</v>
       </c>
       <c r="D66" s="15" t="s">
@@ -8390,7 +8396,7 @@
       <c r="T66" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="U66" s="22" t="s">
+      <c r="U66" s="28" t="s">
         <v>421</v>
       </c>
       <c r="V66" s="23"/>
@@ -8408,7 +8414,7 @@
       <c r="A67" s="11">
         <v>66.0</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="32" t="s">
         <v>422</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -8461,7 +8467,7 @@
         <v>267</v>
       </c>
       <c r="T67" s="23"/>
-      <c r="U67" s="22" t="s">
+      <c r="U67" s="28" t="s">
         <v>424</v>
       </c>
       <c r="V67" s="23"/>
@@ -8479,10 +8485,10 @@
       <c r="A68" s="11">
         <v>67.0</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="43" t="s">
         <v>426</v>
       </c>
       <c r="D68" s="15" t="s">
@@ -8532,7 +8538,7 @@
         <v>407</v>
       </c>
       <c r="T68" s="23"/>
-      <c r="U68" s="22" t="s">
+      <c r="U68" s="28" t="s">
         <v>430</v>
       </c>
       <c r="V68" s="23"/>
@@ -8550,7 +8556,7 @@
       <c r="A69" s="11">
         <v>68.0</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="32" t="s">
         <v>431</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -8565,7 +8571,7 @@
       <c r="F69" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="G69" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H69" s="15" t="s">
@@ -8607,7 +8613,7 @@
       <c r="T69" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="U69" s="22" t="s">
+      <c r="U69" s="28" t="s">
         <v>441</v>
       </c>
       <c r="V69" s="23"/>
@@ -8678,7 +8684,7 @@
         <v>447</v>
       </c>
       <c r="T70" s="23"/>
-      <c r="U70" s="22" t="s">
+      <c r="U70" s="28" t="s">
         <v>448</v>
       </c>
       <c r="V70" s="23"/>
@@ -8696,7 +8702,7 @@
       <c r="A71" s="11">
         <v>70.0</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="32" t="s">
         <v>449</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -8747,7 +8753,7 @@
         <v>267</v>
       </c>
       <c r="T71" s="23"/>
-      <c r="U71" s="22" t="s">
+      <c r="U71" s="28" t="s">
         <v>451</v>
       </c>
       <c r="V71" s="23"/>
@@ -8765,7 +8771,7 @@
       <c r="A72" s="11">
         <v>71.0</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="32" t="s">
         <v>452</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -8816,7 +8822,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="23"/>
       <c r="T72" s="23"/>
-      <c r="U72" s="22" t="s">
+      <c r="U72" s="28" t="s">
         <v>455</v>
       </c>
       <c r="V72" s="23"/>
@@ -8837,7 +8843,7 @@
       <c r="B73" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="43" t="s">
         <v>457</v>
       </c>
       <c r="D73" s="15" t="s">
@@ -8891,7 +8897,7 @@
       <c r="T73" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U73" s="22" t="s">
+      <c r="U73" s="28" t="s">
         <v>463</v>
       </c>
       <c r="V73" s="23"/>
@@ -8909,10 +8915,10 @@
       <c r="A74" s="11">
         <v>73.0</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="43" t="s">
         <v>465</v>
       </c>
       <c r="D74" s="15" t="s">
@@ -8924,7 +8930,7 @@
       <c r="F74" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H74" s="15" t="s">
@@ -8964,7 +8970,7 @@
       <c r="T74" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="U74" s="22" t="s">
+      <c r="U74" s="28" t="s">
         <v>469</v>
       </c>
       <c r="V74" s="23"/>
@@ -8982,10 +8988,10 @@
       <c r="A75" s="11">
         <v>74.0</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="43" t="s">
         <v>471</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -8997,7 +9003,7 @@
       <c r="F75" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H75" s="15" t="s">
@@ -9037,7 +9043,7 @@
       <c r="T75" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="U75" s="22" t="s">
+      <c r="U75" s="28" t="s">
         <v>476</v>
       </c>
       <c r="V75" s="23"/>
@@ -9055,10 +9061,10 @@
       <c r="A76" s="11">
         <v>75.0</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="43" t="s">
         <v>478</v>
       </c>
       <c r="D76" s="15" t="s">
@@ -9070,7 +9076,7 @@
       <c r="F76" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H76" s="15" t="s">
@@ -9108,7 +9114,7 @@
         <v>474</v>
       </c>
       <c r="T76" s="23"/>
-      <c r="U76" s="22" t="s">
+      <c r="U76" s="28" t="s">
         <v>481</v>
       </c>
       <c r="V76" s="23"/>
@@ -9126,10 +9132,10 @@
       <c r="A77" s="11">
         <v>76.0</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="43" t="s">
         <v>483</v>
       </c>
       <c r="D77" s="15" t="s">
@@ -9177,7 +9183,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="23"/>
       <c r="T77" s="23"/>
-      <c r="U77" s="22" t="s">
+      <c r="U77" s="28" t="s">
         <v>486</v>
       </c>
       <c r="V77" s="23"/>
@@ -9195,10 +9201,10 @@
       <c r="A78" s="11">
         <v>77.0</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="43" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="15" t="s">
@@ -9246,7 +9252,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="23"/>
       <c r="T78" s="23"/>
-      <c r="U78" s="22" t="s">
+      <c r="U78" s="28" t="s">
         <v>491</v>
       </c>
       <c r="V78" s="23"/>
@@ -9264,10 +9270,10 @@
       <c r="A79" s="11">
         <v>78.0</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D79" s="15" t="s">
@@ -9319,7 +9325,7 @@
         <v>203</v>
       </c>
       <c r="T79" s="23"/>
-      <c r="U79" s="22" t="s">
+      <c r="U79" s="28" t="s">
         <v>496</v>
       </c>
       <c r="V79" s="23"/>
@@ -9337,10 +9343,10 @@
       <c r="A80" s="11">
         <v>79.0</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="43" t="s">
         <v>498</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -9388,7 +9394,7 @@
       <c r="T80" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="U80" s="22" t="s">
+      <c r="U80" s="28" t="s">
         <v>502</v>
       </c>
       <c r="V80" s="23"/>
@@ -9406,10 +9412,10 @@
       <c r="A81" s="11">
         <v>80.0</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="43" t="s">
         <v>504</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -9461,7 +9467,7 @@
       <c r="T81" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="U81" s="22" t="s">
+      <c r="U81" s="28" t="s">
         <v>507</v>
       </c>
       <c r="V81" s="23"/>
@@ -9479,10 +9485,10 @@
       <c r="A82" s="11">
         <v>81.0</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="43" t="s">
         <v>509</v>
       </c>
       <c r="D82" s="15" t="s">
@@ -9534,7 +9540,7 @@
         <v>512</v>
       </c>
       <c r="T82" s="23"/>
-      <c r="U82" s="22" t="s">
+      <c r="U82" s="28" t="s">
         <v>513</v>
       </c>
       <c r="V82" s="23"/>
@@ -9552,22 +9558,22 @@
       <c r="A83" s="11">
         <v>82.0</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="43" t="s">
         <v>515</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E83" s="44" t="s">
+      <c r="E83" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G83" s="39" t="s">
+      <c r="G83" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H83" s="15" t="s">
@@ -9605,7 +9611,7 @@
         <v>83</v>
       </c>
       <c r="T83" s="23"/>
-      <c r="U83" s="22" t="s">
+      <c r="U83" s="28" t="s">
         <v>520</v>
       </c>
       <c r="V83" s="23"/>
@@ -9623,16 +9629,16 @@
       <c r="A84" s="11">
         <v>83.0</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="43" t="s">
         <v>522</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="16" t="s">
@@ -9676,7 +9682,7 @@
       <c r="T84" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U84" s="22" t="s">
+      <c r="U84" s="28" t="s">
         <v>525</v>
       </c>
       <c r="V84" s="23"/>
@@ -9694,22 +9700,22 @@
       <c r="A85" s="11">
         <v>84.0</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="43" t="s">
         <v>527</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H85" s="15" t="s">
@@ -9733,7 +9739,7 @@
       <c r="N85" s="20">
         <v>10.0</v>
       </c>
-      <c r="O85" s="53">
+      <c r="O85" s="54">
         <v>5.0</v>
       </c>
       <c r="P85" s="11">
@@ -9749,7 +9755,7 @@
         <v>531</v>
       </c>
       <c r="T85" s="23"/>
-      <c r="U85" s="22" t="s">
+      <c r="U85" s="28" t="s">
         <v>532</v>
       </c>
       <c r="V85" s="23"/>
@@ -9767,22 +9773,22 @@
       <c r="A86" s="11">
         <v>85.0</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="43" t="s">
         <v>534</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="44" t="s">
+      <c r="E86" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G86" s="39" t="s">
+      <c r="G86" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H86" s="15" t="s">
@@ -9822,7 +9828,7 @@
       <c r="T86" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U86" s="22" t="s">
+      <c r="U86" s="28" t="s">
         <v>536</v>
       </c>
       <c r="V86" s="23"/>
@@ -9840,25 +9846,25 @@
       <c r="A87" s="11">
         <v>86.0</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="43" t="s">
         <v>538</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="44" t="s">
+      <c r="E87" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="H87" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I87" s="17" t="s">
@@ -9882,7 +9888,7 @@
       <c r="O87" s="58">
         <v>0.5</v>
       </c>
-      <c r="P87" s="53">
+      <c r="P87" s="54">
         <v>8.0</v>
       </c>
       <c r="Q87" s="15" t="s">
@@ -9895,7 +9901,7 @@
         <v>540</v>
       </c>
       <c r="T87" s="23"/>
-      <c r="U87" s="22" t="s">
+      <c r="U87" s="28" t="s">
         <v>541</v>
       </c>
       <c r="V87" s="23"/>
@@ -9913,25 +9919,25 @@
       <c r="A88" s="11">
         <v>87.0</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="C88" s="42" t="s">
+      <c r="C88" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G88" s="39" t="s">
+      <c r="G88" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H88" s="44" t="s">
+      <c r="H88" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I88" s="17" t="s">
@@ -9966,7 +9972,7 @@
         <v>545</v>
       </c>
       <c r="T88" s="23"/>
-      <c r="U88" s="22" t="s">
+      <c r="U88" s="28" t="s">
         <v>546</v>
       </c>
       <c r="V88" s="23"/>
@@ -9984,7 +9990,7 @@
       <c r="A89" s="11">
         <v>88.0</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="32" t="s">
         <v>547</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -9993,16 +9999,16 @@
       <c r="D89" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E89" s="54" t="s">
+      <c r="E89" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H89" s="44" t="s">
+      <c r="H89" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I89" s="17" t="s">
@@ -10039,7 +10045,7 @@
         <v>31</v>
       </c>
       <c r="T89" s="23"/>
-      <c r="U89" s="22" t="s">
+      <c r="U89" s="28" t="s">
         <v>551</v>
       </c>
       <c r="V89" s="23"/>
@@ -10066,7 +10072,7 @@
       <c r="D90" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="16" t="s">
@@ -10075,7 +10081,7 @@
       <c r="G90" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H90" s="44" t="s">
+      <c r="H90" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I90" s="59" t="s">
@@ -10112,7 +10118,7 @@
         <v>83</v>
       </c>
       <c r="T90" s="23"/>
-      <c r="U90" s="22" t="s">
+      <c r="U90" s="28" t="s">
         <v>556</v>
       </c>
       <c r="V90" s="23"/>
@@ -10130,25 +10136,25 @@
       <c r="A91" s="11">
         <v>90.0</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="43" t="s">
         <v>558</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="44" t="s">
+      <c r="E91" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G91" s="39" t="s">
+      <c r="G91" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H91" s="44" t="s">
+      <c r="H91" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I91" s="17" t="s">
@@ -10183,7 +10189,7 @@
         <v>561</v>
       </c>
       <c r="T91" s="23"/>
-      <c r="U91" s="22" t="s">
+      <c r="U91" s="28" t="s">
         <v>562</v>
       </c>
       <c r="V91" s="23"/>
@@ -10201,16 +10207,16 @@
       <c r="A92" s="11">
         <v>91.0</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="32" t="s">
         <v>563</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="43" t="s">
         <v>564</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F92" s="16" t="s">
@@ -10256,7 +10262,7 @@
         <v>561</v>
       </c>
       <c r="T92" s="23"/>
-      <c r="U92" s="22" t="s">
+      <c r="U92" s="28" t="s">
         <v>567</v>
       </c>
       <c r="V92" s="23"/>
@@ -10274,7 +10280,7 @@
       <c r="A93" s="11">
         <v>92.0</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="32" t="s">
         <v>568</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -10327,7 +10333,7 @@
         <v>83</v>
       </c>
       <c r="T93" s="23"/>
-      <c r="U93" s="22" t="s">
+      <c r="U93" s="28" t="s">
         <v>572</v>
       </c>
       <c r="V93" s="23"/>
@@ -10345,16 +10351,16 @@
       <c r="A94" s="11">
         <v>93.0</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="43" t="s">
         <v>574</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="16" t="s">
@@ -10400,7 +10406,7 @@
       <c r="T94" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="U94" s="22" t="s">
+      <c r="U94" s="28" t="s">
         <v>579</v>
       </c>
       <c r="V94" s="23"/>
@@ -10418,7 +10424,7 @@
       <c r="A95" s="11">
         <v>94.0</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="32" t="s">
         <v>580</v>
       </c>
       <c r="C95" s="21" t="s">
@@ -10433,7 +10439,7 @@
       <c r="F95" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="G95" s="39" t="s">
+      <c r="G95" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H95" s="15" t="s">
@@ -10473,7 +10479,7 @@
         <v>512</v>
       </c>
       <c r="T95" s="23"/>
-      <c r="U95" s="22" t="s">
+      <c r="U95" s="28" t="s">
         <v>585</v>
       </c>
       <c r="V95" s="23"/>
@@ -10491,7 +10497,7 @@
       <c r="A96" s="11">
         <v>95.0</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="32" t="s">
         <v>586</v>
       </c>
       <c r="C96" s="21" t="s">
@@ -10500,7 +10506,7 @@
       <c r="D96" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F96" s="16" t="s">
@@ -10546,7 +10552,7 @@
         <v>83</v>
       </c>
       <c r="T96" s="23"/>
-      <c r="U96" s="22" t="s">
+      <c r="U96" s="28" t="s">
         <v>588</v>
       </c>
       <c r="V96" s="23"/>
@@ -10564,7 +10570,7 @@
       <c r="A97" s="11">
         <v>96.0</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="32" t="s">
         <v>589</v>
       </c>
       <c r="C97" s="13" t="s">
@@ -10573,7 +10579,7 @@
       <c r="D97" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="16" t="s">
@@ -10621,7 +10627,7 @@
       <c r="T97" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="U97" s="22" t="s">
+      <c r="U97" s="28" t="s">
         <v>593</v>
       </c>
       <c r="V97" s="23"/>
@@ -10639,22 +10645,22 @@
       <c r="A98" s="11">
         <v>97.0</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="43" t="s">
         <v>595</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="G98" s="39" t="s">
+      <c r="G98" s="40" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="15" t="s">
@@ -10694,7 +10700,7 @@
         <v>540</v>
       </c>
       <c r="T98" s="23"/>
-      <c r="U98" s="22" t="s">
+      <c r="U98" s="28" t="s">
         <v>599</v>
       </c>
       <c r="V98" s="23"/>
@@ -10712,22 +10718,22 @@
       <c r="A99" s="11">
         <v>98.0</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="43" t="s">
         <v>601</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G99" s="39" t="s">
+      <c r="G99" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H99" s="15" t="s">
@@ -10763,7 +10769,7 @@
       </c>
       <c r="S99" s="23"/>
       <c r="T99" s="23"/>
-      <c r="U99" s="22" t="s">
+      <c r="U99" s="28" t="s">
         <v>603</v>
       </c>
       <c r="V99" s="23"/>
@@ -10781,10 +10787,10 @@
       <c r="A100" s="11">
         <v>99.0</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="43" t="s">
         <v>605</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -10832,7 +10838,7 @@
       </c>
       <c r="S100" s="23"/>
       <c r="T100" s="23"/>
-      <c r="U100" s="22" t="s">
+      <c r="U100" s="28" t="s">
         <v>607</v>
       </c>
       <c r="V100" s="23"/>
@@ -10850,10 +10856,10 @@
       <c r="A101" s="11">
         <v>100.0</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="43" t="s">
         <v>609</v>
       </c>
       <c r="D101" s="15" t="s">
@@ -10905,7 +10911,7 @@
       <c r="T101" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="U101" s="22" t="s">
+      <c r="U101" s="28" t="s">
         <v>614</v>
       </c>
       <c r="V101" s="23"/>
@@ -10926,7 +10932,7 @@
       <c r="B102" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="43" t="s">
         <v>616</v>
       </c>
       <c r="D102" s="15" t="s">
@@ -10976,7 +10982,7 @@
       <c r="T102" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="U102" s="22" t="s">
+      <c r="U102" s="28" t="s">
         <v>619</v>
       </c>
       <c r="V102" s="23"/>
@@ -10997,19 +11003,19 @@
       <c r="B103" s="60" t="s">
         <v>620</v>
       </c>
-      <c r="C103" s="42" t="s">
+      <c r="C103" s="43" t="s">
         <v>621</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G103" s="39" t="s">
+      <c r="G103" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H103" s="15" t="s">
@@ -11049,7 +11055,7 @@
         <v>624</v>
       </c>
       <c r="T103" s="23"/>
-      <c r="U103" s="22" t="s">
+      <c r="U103" s="28" t="s">
         <v>625</v>
       </c>
       <c r="V103" s="23"/>
@@ -11070,7 +11076,7 @@
       <c r="B104" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="43" t="s">
         <v>627</v>
       </c>
       <c r="D104" s="15" t="s">
@@ -11082,13 +11088,13 @@
       <c r="F104" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G104" s="39" t="s">
+      <c r="G104" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="I104" s="27" t="s">
+      <c r="I104" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J104" s="25">
@@ -11124,7 +11130,7 @@
       <c r="T104" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="U104" s="22" t="s">
+      <c r="U104" s="28" t="s">
         <v>631</v>
       </c>
       <c r="V104" s="23"/>
@@ -11142,7 +11148,7 @@
       <c r="A105" s="11">
         <v>104.0</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="32" t="s">
         <v>632</v>
       </c>
       <c r="C105" s="21" t="s">
@@ -11195,8 +11201,8 @@
       <c r="T105" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="U105" s="22" t="s">
-        <v>335</v>
+      <c r="U105" s="28" t="s">
+        <v>637</v>
       </c>
       <c r="V105" s="23"/>
       <c r="W105" s="23"/>
@@ -11214,10 +11220,10 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>288</v>
@@ -11235,7 +11241,7 @@
         <v>162</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J106" s="18">
         <v>6.1</v>
@@ -11257,17 +11263,17 @@
         <v>1.0</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S106" s="15" t="s">
         <v>284</v>
       </c>
       <c r="T106" s="23"/>
-      <c r="U106" s="22" t="s">
-        <v>642</v>
+      <c r="U106" s="28" t="s">
+        <v>643</v>
       </c>
       <c r="V106" s="23"/>
       <c r="W106" s="23"/>
@@ -11285,13 +11291,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C107" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C107" s="43" t="s">
         <v>241</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="16" t="s">
@@ -11304,7 +11310,7 @@
         <v>87</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J107" s="18">
         <v>5.6</v>
@@ -11331,8 +11337,8 @@
       </c>
       <c r="S107" s="23"/>
       <c r="T107" s="23"/>
-      <c r="U107" s="22" t="s">
-        <v>243</v>
+      <c r="U107" s="28" t="s">
+        <v>647</v>
       </c>
       <c r="V107" s="23"/>
       <c r="W107" s="23"/>
@@ -11350,24 +11356,24 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>649</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="28" t="s">
+      <c r="E108" s="30" t="s">
         <v>227</v>
       </c>
       <c r="F108" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H108" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I108" s="17" t="s">
@@ -11393,15 +11399,15 @@
         <v>10.0</v>
       </c>
       <c r="Q108" s="23"/>
-      <c r="R108" s="28" t="s">
-        <v>641</v>
+      <c r="R108" s="30" t="s">
+        <v>642</v>
       </c>
       <c r="S108" s="23"/>
       <c r="T108" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="U108" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="U108" s="28" t="s">
+        <v>651</v>
       </c>
       <c r="V108" s="23"/>
       <c r="W108" s="23"/>
@@ -11418,11 +11424,11 @@
       <c r="A109" s="11">
         <v>108.0</v>
       </c>
-      <c r="B109" s="30" t="s">
-        <v>650</v>
+      <c r="B109" s="32" t="s">
+        <v>652</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>51</v>
@@ -11433,14 +11439,14 @@
       <c r="F109" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="39" t="s">
+      <c r="G109" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>213</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J109" s="18">
         <v>5.1</v>
@@ -11464,17 +11470,17 @@
         <v>5.0</v>
       </c>
       <c r="Q109" s="15" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="R109" s="15" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="T109" s="23"/>
-      <c r="U109" s="22" t="s">
-        <v>656</v>
+      <c r="U109" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="V109" s="23"/>
       <c r="W109" s="23"/>
@@ -11491,14 +11497,14 @@
       <c r="A110" s="11">
         <v>109.0</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>657</v>
+      <c r="B110" s="32" t="s">
+        <v>659</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>24</v>
@@ -11538,14 +11544,14 @@
         <v>338</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="S110" s="23"/>
       <c r="T110" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="U110" s="22" t="s">
-        <v>660</v>
+      <c r="U110" s="28" t="s">
+        <v>662</v>
       </c>
       <c r="V110" s="23"/>
       <c r="W110" s="23"/>
@@ -11562,14 +11568,14 @@
       <c r="A111" s="11">
         <v>110.0</v>
       </c>
-      <c r="B111" s="30" t="s">
-        <v>661</v>
+      <c r="B111" s="32" t="s">
+        <v>663</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>24</v>
@@ -11580,7 +11586,7 @@
       <c r="G111" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="H111" s="30" t="s">
         <v>213</v>
       </c>
       <c r="I111" s="17" t="s">
@@ -11593,7 +11599,7 @@
         <v>6.5</v>
       </c>
       <c r="L111" s="19" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="M111" s="20">
         <v>20.0</v>
@@ -11608,15 +11614,15 @@
         <v>5.0</v>
       </c>
       <c r="Q111" s="15" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="R111" s="15" t="s">
         <v>446</v>
       </c>
       <c r="S111" s="23"/>
       <c r="T111" s="23"/>
-      <c r="U111" s="22" t="s">
-        <v>666</v>
+      <c r="U111" s="28" t="s">
+        <v>668</v>
       </c>
       <c r="V111" s="23"/>
       <c r="W111" s="23"/>
@@ -11633,14 +11639,14 @@
       <c r="A112" s="11">
         <v>111.0</v>
       </c>
-      <c r="B112" s="30" t="s">
-        <v>667</v>
+      <c r="B112" s="32" t="s">
+        <v>669</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>61</v>
@@ -11648,14 +11654,14 @@
       <c r="F112" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G112" s="39" t="s">
+      <c r="G112" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>517</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J112" s="18">
         <v>7.4</v>
@@ -11680,14 +11686,14 @@
         <v>634</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="T112" s="23"/>
-      <c r="U112" s="22" t="s">
-        <v>673</v>
+      <c r="U112" s="28" t="s">
+        <v>675</v>
       </c>
       <c r="V112" s="23"/>
       <c r="W112" s="23"/>
@@ -11704,23 +11710,23 @@
       <c r="A113" s="11">
         <v>112.0</v>
       </c>
-      <c r="B113" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>675</v>
+      <c r="B113" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>677</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E113" s="15" t="s">
         <v>458</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>87</v>
@@ -11753,14 +11759,14 @@
         <v>81</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="S113" s="15" t="s">
         <v>203</v>
       </c>
       <c r="T113" s="23"/>
-      <c r="U113" s="22" t="s">
-        <v>678</v>
+      <c r="U113" s="28" t="s">
+        <v>680</v>
       </c>
       <c r="V113" s="23"/>
       <c r="W113" s="23"/>
@@ -11777,11 +11783,11 @@
       <c r="A114" s="11">
         <v>113.0</v>
       </c>
-      <c r="B114" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>680</v>
+      <c r="B114" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>682</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>288</v>
@@ -11790,9 +11796,9 @@
         <v>458</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="G114" s="39" t="s">
+        <v>683</v>
+      </c>
+      <c r="G114" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H114" s="15" t="s">
@@ -11828,8 +11834,8 @@
       </c>
       <c r="S114" s="23"/>
       <c r="T114" s="23"/>
-      <c r="U114" s="22" t="s">
-        <v>682</v>
+      <c r="U114" s="28" t="s">
+        <v>684</v>
       </c>
       <c r="V114" s="23"/>
       <c r="W114" s="23"/>
@@ -11846,11 +11852,11 @@
       <c r="A115" s="11">
         <v>114.0</v>
       </c>
-      <c r="B115" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>684</v>
+      <c r="B115" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>686</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>36</v>
@@ -11893,12 +11899,12 @@
         <v>338</v>
       </c>
       <c r="R115" s="15" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="S115" s="23"/>
       <c r="T115" s="23"/>
-      <c r="U115" s="22" t="s">
-        <v>686</v>
+      <c r="U115" s="28" t="s">
+        <v>688</v>
       </c>
       <c r="V115" s="23"/>
       <c r="W115" s="23"/>
@@ -11915,11 +11921,11 @@
       <c r="A116" s="11">
         <v>115.0</v>
       </c>
-      <c r="B116" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>688</v>
+      <c r="B116" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>690</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>610</v>
@@ -11930,14 +11936,14 @@
       <c r="F116" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="G116" s="39" t="s">
+      <c r="G116" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>87</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J116" s="18">
         <v>5.6</v>
@@ -11966,8 +11972,8 @@
       <c r="T116" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="U116" s="22" t="s">
-        <v>690</v>
+      <c r="U116" s="28" t="s">
+        <v>692</v>
       </c>
       <c r="V116" s="23"/>
       <c r="W116" s="23"/>
@@ -11985,10 +11991,10 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>617</v>
@@ -11999,14 +12005,14 @@
       <c r="F117" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G117" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>45</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J117" s="18">
         <v>6.1</v>
@@ -12033,16 +12039,16 @@
         <v>221</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="T117" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="U117" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="U117" s="28" t="s">
+        <v>699</v>
       </c>
       <c r="V117" s="23"/>
       <c r="W117" s="23"/>
@@ -12059,16 +12065,16 @@
       <c r="A118" s="11">
         <v>117.0</v>
       </c>
-      <c r="B118" s="30" t="s">
-        <v>698</v>
+      <c r="B118" s="32" t="s">
+        <v>700</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D118" s="54" t="s">
+        <v>701</v>
+      </c>
+      <c r="D118" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E118" s="54" t="s">
+      <c r="E118" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F118" s="63" t="s">
@@ -12077,11 +12083,11 @@
       <c r="G118" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H118" s="28" t="s">
+      <c r="H118" s="30" t="s">
         <v>45</v>
       </c>
       <c r="I118" s="59" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J118" s="18">
         <v>5.6</v>
@@ -12089,11 +12095,11 @@
       <c r="K118" s="18">
         <v>7.3</v>
       </c>
-      <c r="L118" s="50"/>
-      <c r="M118" s="48">
+      <c r="L118" s="51"/>
+      <c r="M118" s="49">
         <v>-10.0</v>
       </c>
-      <c r="N118" s="48">
+      <c r="N118" s="49">
         <v>25.0</v>
       </c>
       <c r="O118" s="11">
@@ -12105,13 +12111,13 @@
       <c r="Q118" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="R118" s="54"/>
+      <c r="R118" s="55"/>
       <c r="S118" s="23"/>
-      <c r="T118" s="54" t="s">
+      <c r="T118" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="U118" s="22" t="s">
-        <v>701</v>
+      <c r="U118" s="28" t="s">
+        <v>703</v>
       </c>
       <c r="V118" s="23"/>
       <c r="W118" s="23"/>
@@ -12128,16 +12134,16 @@
       <c r="A119" s="11">
         <v>118.0</v>
       </c>
-      <c r="B119" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="D119" s="54" t="s">
+      <c r="B119" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C119" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D119" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E119" s="54" t="s">
+      <c r="E119" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F119" s="16" t="s">
@@ -12150,7 +12156,7 @@
         <v>517</v>
       </c>
       <c r="I119" s="59" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J119" s="18">
         <v>5.6</v>
@@ -12158,13 +12164,13 @@
       <c r="K119" s="18">
         <v>7.3</v>
       </c>
-      <c r="L119" s="50" t="s">
+      <c r="L119" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M119" s="48">
+      <c r="M119" s="49">
         <v>0.0</v>
       </c>
-      <c r="N119" s="48">
+      <c r="N119" s="49">
         <v>25.0</v>
       </c>
       <c r="O119" s="11">
@@ -12176,17 +12182,17 @@
       <c r="Q119" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="R119" s="54" t="s">
+      <c r="R119" s="55" t="s">
         <v>539</v>
       </c>
       <c r="S119" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="T119" s="54" t="s">
-        <v>705</v>
-      </c>
-      <c r="U119" s="22" t="s">
         <v>706</v>
+      </c>
+      <c r="T119" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="U119" s="28" t="s">
+        <v>708</v>
       </c>
       <c r="V119" s="23"/>
       <c r="W119" s="23"/>
@@ -12203,16 +12209,16 @@
       <c r="A120" s="11">
         <v>119.0</v>
       </c>
-      <c r="B120" s="30" t="s">
-        <v>707</v>
+      <c r="B120" s="32" t="s">
+        <v>709</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="D120" s="54" t="s">
-        <v>709</v>
-      </c>
-      <c r="E120" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="E120" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F120" s="16" t="s">
@@ -12225,7 +12231,7 @@
         <v>45</v>
       </c>
       <c r="I120" s="59" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J120" s="18">
         <v>6.6</v>
@@ -12233,13 +12239,13 @@
       <c r="K120" s="18">
         <v>6.5</v>
       </c>
-      <c r="L120" s="50" t="s">
+      <c r="L120" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M120" s="48">
+      <c r="M120" s="49">
         <v>-5.0</v>
       </c>
-      <c r="N120" s="48">
+      <c r="N120" s="49">
         <v>20.0</v>
       </c>
       <c r="O120" s="11">
@@ -12249,17 +12255,17 @@
         <v>0.5</v>
       </c>
       <c r="Q120" s="23"/>
-      <c r="R120" s="54" t="s">
+      <c r="R120" s="55" t="s">
         <v>539</v>
       </c>
       <c r="S120" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T120" s="54" t="s">
+      <c r="T120" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="U120" s="22" t="s">
-        <v>711</v>
+      <c r="U120" s="28" t="s">
+        <v>713</v>
       </c>
       <c r="V120" s="23"/>
       <c r="W120" s="23"/>
@@ -12276,11 +12282,11 @@
       <c r="A121" s="11">
         <v>120.0</v>
       </c>
-      <c r="B121" s="30" t="s">
-        <v>712</v>
+      <c r="B121" s="32" t="s">
+        <v>714</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>23</v>
@@ -12298,7 +12304,7 @@
         <v>45</v>
       </c>
       <c r="I121" s="65" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J121" s="18">
         <v>5.1</v>
@@ -12307,7 +12313,7 @@
         <v>6.5</v>
       </c>
       <c r="L121" s="19" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M121" s="20">
         <v>20.0</v>
@@ -12329,8 +12335,8 @@
       </c>
       <c r="S121" s="66"/>
       <c r="T121" s="23"/>
-      <c r="U121" s="22" t="s">
-        <v>715</v>
+      <c r="U121" s="28" t="s">
+        <v>717</v>
       </c>
       <c r="V121" s="23"/>
       <c r="W121" s="23"/>
@@ -12347,11 +12353,11 @@
       <c r="A122" s="11">
         <v>121.0</v>
       </c>
-      <c r="B122" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="C122" s="42" t="s">
-        <v>717</v>
+      <c r="B122" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>719</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>23</v>
@@ -12362,7 +12368,7 @@
       <c r="F122" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="G122" s="39" t="s">
+      <c r="G122" s="40" t="s">
         <v>119</v>
       </c>
       <c r="H122" s="15" t="s">
@@ -12378,12 +12384,12 @@
         <v>6.5</v>
       </c>
       <c r="L122" s="67" t="s">
-        <v>718</v>
-      </c>
-      <c r="M122" s="52">
+        <v>720</v>
+      </c>
+      <c r="M122" s="53">
         <v>15.0</v>
       </c>
-      <c r="N122" s="52">
+      <c r="N122" s="53">
         <v>35.0</v>
       </c>
       <c r="O122" s="11">
@@ -12402,8 +12408,8 @@
       <c r="T122" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="U122" s="22" t="s">
-        <v>719</v>
+      <c r="U122" s="28" t="s">
+        <v>721</v>
       </c>
       <c r="V122" s="23"/>
       <c r="W122" s="23"/>
@@ -12420,11 +12426,11 @@
       <c r="A123" s="11">
         <v>122.0</v>
       </c>
-      <c r="B123" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>721</v>
+      <c r="B123" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>723</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>23</v>
@@ -12468,11 +12474,11 @@
       </c>
       <c r="R123" s="23"/>
       <c r="S123" s="23"/>
-      <c r="T123" s="54" t="s">
+      <c r="T123" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="U123" s="22" t="s">
-        <v>722</v>
+      <c r="U123" s="28" t="s">
+        <v>724</v>
       </c>
       <c r="V123" s="23"/>
       <c r="W123" s="23"/>
@@ -12489,11 +12495,11 @@
       <c r="A124" s="11">
         <v>123.0</v>
       </c>
-      <c r="B124" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="C124" s="42" t="s">
-        <v>724</v>
+      <c r="B124" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>726</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>23</v>
@@ -12508,7 +12514,7 @@
         <v>234</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>79</v>
@@ -12533,17 +12539,17 @@
         <v>1.0</v>
       </c>
       <c r="Q124" s="15" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="R124" s="23"/>
       <c r="S124" s="15" t="s">
         <v>355</v>
       </c>
       <c r="T124" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="U124" s="22" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+      <c r="U124" s="28" t="s">
+        <v>730</v>
       </c>
       <c r="V124" s="23"/>
       <c r="W124" s="23"/>
@@ -12560,11 +12566,11 @@
       <c r="A125" s="11">
         <v>124.0</v>
       </c>
-      <c r="B125" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>730</v>
+      <c r="B125" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>732</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>23</v>
@@ -12579,10 +12585,10 @@
         <v>344</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I125" s="71" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J125" s="72">
         <v>6.6</v>
@@ -12590,13 +12596,13 @@
       <c r="K125" s="72">
         <v>6.5</v>
       </c>
-      <c r="L125" s="50" t="s">
+      <c r="L125" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="M125" s="48">
+      <c r="M125" s="49">
         <v>18.0</v>
       </c>
-      <c r="N125" s="48">
+      <c r="N125" s="49">
         <v>25.0</v>
       </c>
       <c r="O125" s="11">
@@ -12606,15 +12612,15 @@
         <v>0.5</v>
       </c>
       <c r="Q125" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="S125" s="23"/>
-      <c r="T125" s="55"/>
-      <c r="U125" s="22" t="s">
-        <v>733</v>
+      <c r="T125" s="56"/>
+      <c r="U125" s="28" t="s">
+        <v>735</v>
       </c>
       <c r="V125" s="23"/>
       <c r="W125" s="23"/>
@@ -12631,11 +12637,11 @@
       <c r="A126" s="11">
         <v>125.0</v>
       </c>
-      <c r="B126" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>735</v>
+      <c r="B126" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>737</v>
       </c>
       <c r="D126" s="15" t="s">
         <v>23</v>
@@ -12650,10 +12656,10 @@
         <v>344</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J126" s="18">
         <v>6.6</v>
@@ -12675,19 +12681,19 @@
         <v>0.25</v>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="R126" s="15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="S126" s="15" t="s">
         <v>284</v>
       </c>
       <c r="T126" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="U126" s="22" t="s">
-        <v>737</v>
+        <v>729</v>
+      </c>
+      <c r="U126" s="28" t="s">
+        <v>739</v>
       </c>
       <c r="V126" s="23"/>
       <c r="W126" s="23"/>
@@ -12704,11 +12710,11 @@
       <c r="A127" s="11">
         <v>126.0</v>
       </c>
-      <c r="B127" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>739</v>
+      <c r="B127" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>741</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>288</v>
@@ -12719,11 +12725,11 @@
       <c r="F127" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="30" t="s">
         <v>344</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>189</v>
@@ -12735,10 +12741,10 @@
         <v>6.5</v>
       </c>
       <c r="L127" s="73"/>
-      <c r="M127" s="52">
+      <c r="M127" s="53">
         <v>18.0</v>
       </c>
-      <c r="N127" s="52">
+      <c r="N127" s="53">
         <v>35.0</v>
       </c>
       <c r="O127" s="11">
@@ -12748,17 +12754,17 @@
         <v>1.0</v>
       </c>
       <c r="Q127" s="15" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="R127" s="15" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="S127" s="15" t="s">
         <v>267</v>
       </c>
       <c r="T127" s="23"/>
-      <c r="U127" s="22" t="s">
-        <v>743</v>
+      <c r="U127" s="28" t="s">
+        <v>745</v>
       </c>
       <c r="V127" s="23"/>
       <c r="W127" s="23"/>
@@ -12775,14 +12781,14 @@
       <c r="A128" s="11">
         <v>127.0</v>
       </c>
-      <c r="B128" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="C128" s="42" t="s">
-        <v>745</v>
+      <c r="B128" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>747</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>167</v>
@@ -12824,12 +12830,12 @@
         <v>178</v>
       </c>
       <c r="R128" s="15" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="S128" s="23"/>
       <c r="T128" s="23"/>
-      <c r="U128" s="22" t="s">
-        <v>747</v>
+      <c r="U128" s="28" t="s">
+        <v>749</v>
       </c>
       <c r="V128" s="23"/>
       <c r="W128" s="23"/>
@@ -12846,14 +12852,14 @@
       <c r="A129" s="11">
         <v>128.0</v>
       </c>
-      <c r="B129" s="30" t="s">
-        <v>748</v>
+      <c r="B129" s="32" t="s">
+        <v>750</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>458</v>
@@ -12901,8 +12907,8 @@
       <c r="T129" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="U129" s="22" t="s">
-        <v>751</v>
+      <c r="U129" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="V129" s="23"/>
       <c r="W129" s="23"/>
@@ -12919,16 +12925,16 @@
       <c r="A130" s="11">
         <v>129.0</v>
       </c>
-      <c r="B130" s="30" t="s">
-        <v>752</v>
+      <c r="B130" s="32" t="s">
+        <v>754</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="30" t="s">
         <v>458</v>
       </c>
       <c r="F130" s="16" t="s">
@@ -12963,15 +12969,15 @@
         <v>1.5</v>
       </c>
       <c r="Q130" s="15" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="R130" s="15" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="S130" s="23"/>
       <c r="T130" s="23"/>
-      <c r="U130" s="22" t="s">
-        <v>755</v>
+      <c r="U130" s="28" t="s">
+        <v>757</v>
       </c>
       <c r="V130" s="23"/>
       <c r="W130" s="23"/>
@@ -12989,13 +12995,13 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E131" s="15" t="s">
         <v>24</v>
@@ -13003,14 +13009,14 @@
       <c r="F131" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G131" s="39" t="s">
+      <c r="G131" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H131" s="15" t="s">
         <v>87</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="J131" s="18">
         <v>5.6</v>
@@ -13035,14 +13041,14 @@
       </c>
       <c r="Q131" s="23"/>
       <c r="R131" s="15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="S131" s="15" t="s">
         <v>474</v>
       </c>
       <c r="T131" s="23"/>
-      <c r="U131" s="22" t="s">
-        <v>761</v>
+      <c r="U131" s="28" t="s">
+        <v>763</v>
       </c>
       <c r="V131" s="23"/>
       <c r="W131" s="23"/>
@@ -13059,11 +13065,11 @@
       <c r="A132" s="11">
         <v>131.0</v>
       </c>
-      <c r="B132" s="30" t="s">
-        <v>762</v>
+      <c r="B132" s="32" t="s">
+        <v>764</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>36</v>
@@ -13110,8 +13116,8 @@
         <v>267</v>
       </c>
       <c r="T132" s="23"/>
-      <c r="U132" s="22" t="s">
-        <v>764</v>
+      <c r="U132" s="28" t="s">
+        <v>766</v>
       </c>
       <c r="V132" s="23"/>
       <c r="W132" s="23"/>
@@ -13129,13 +13135,13 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D133" s="74" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E133" s="15" t="s">
         <v>458</v>
@@ -13143,14 +13149,14 @@
       <c r="F133" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G133" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>87</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="J133" s="18">
         <v>5.6</v>
@@ -13159,7 +13165,7 @@
         <v>6.5</v>
       </c>
       <c r="L133" s="19" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M133" s="20">
         <v>21.0</v>
@@ -13174,7 +13180,7 @@
         <v>0.5</v>
       </c>
       <c r="Q133" s="15" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="R133" s="15" t="s">
         <v>339</v>
@@ -13183,8 +13189,8 @@
         <v>83</v>
       </c>
       <c r="T133" s="23"/>
-      <c r="U133" s="22" t="s">
-        <v>771</v>
+      <c r="U133" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="V133" s="23"/>
       <c r="W133" s="23"/>
@@ -13201,11 +13207,11 @@
       <c r="A134" s="11">
         <v>133.0</v>
       </c>
-      <c r="B134" s="30" t="s">
-        <v>772</v>
+      <c r="B134" s="32" t="s">
+        <v>774</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>353</v>
@@ -13245,17 +13251,17 @@
         <v>0.75</v>
       </c>
       <c r="Q134" s="15" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="R134" s="15" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="S134" s="15" t="s">
         <v>629</v>
       </c>
       <c r="T134" s="23"/>
-      <c r="U134" s="22" t="s">
-        <v>775</v>
+      <c r="U134" s="28" t="s">
+        <v>777</v>
       </c>
       <c r="V134" s="23"/>
       <c r="W134" s="23"/>
@@ -13272,13 +13278,13 @@
       <c r="A135" s="11">
         <v>134.0</v>
       </c>
-      <c r="B135" s="30" t="s">
-        <v>776</v>
+      <c r="B135" s="32" t="s">
+        <v>778</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="D135" s="54" t="s">
+        <v>779</v>
+      </c>
+      <c r="D135" s="55" t="s">
         <v>36</v>
       </c>
       <c r="E135" s="15" t="s">
@@ -13316,17 +13322,17 @@
         <v>1.0</v>
       </c>
       <c r="Q135" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="R135" s="44" t="s">
+        <v>780</v>
+      </c>
+      <c r="R135" s="45" t="s">
         <v>163</v>
       </c>
       <c r="S135" s="23"/>
       <c r="T135" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="U135" s="22" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="U135" s="28" t="s">
+        <v>782</v>
       </c>
       <c r="V135" s="23"/>
       <c r="W135" s="23"/>
@@ -13343,11 +13349,11 @@
       <c r="A136" s="11">
         <v>135.0</v>
       </c>
-      <c r="B136" s="30" t="s">
-        <v>781</v>
+      <c r="B136" s="32" t="s">
+        <v>783</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>71</v>
@@ -13394,8 +13400,8 @@
       </c>
       <c r="S136" s="23"/>
       <c r="T136" s="23"/>
-      <c r="U136" s="22" t="s">
-        <v>783</v>
+      <c r="U136" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="V136" s="23"/>
       <c r="W136" s="23"/>
@@ -13413,10 +13419,10 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>575</v>
@@ -13431,10 +13437,10 @@
         <v>102</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J137" s="18">
         <v>5.6</v>
@@ -13458,17 +13464,17 @@
         <v>1.0</v>
       </c>
       <c r="Q137" s="15" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="R137" s="23"/>
       <c r="S137" s="15" t="s">
         <v>83</v>
       </c>
       <c r="T137" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="U137" s="22" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="U137" s="28" t="s">
+        <v>791</v>
       </c>
       <c r="V137" s="23"/>
       <c r="W137" s="23"/>
@@ -13486,12 +13492,12 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="D138" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="D138" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E138" s="15" t="s">
@@ -13529,7 +13535,7 @@
         <v>1.5</v>
       </c>
       <c r="Q138" s="15" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="R138" s="15" t="s">
         <v>339</v>
@@ -13538,8 +13544,8 @@
         <v>512</v>
       </c>
       <c r="T138" s="23"/>
-      <c r="U138" s="22" t="s">
-        <v>793</v>
+      <c r="U138" s="28" t="s">
+        <v>795</v>
       </c>
       <c r="V138" s="23"/>
       <c r="W138" s="23"/>
@@ -13556,22 +13562,22 @@
       <c r="A139" s="11">
         <v>138.0</v>
       </c>
-      <c r="B139" s="30" t="s">
-        <v>794</v>
+      <c r="B139" s="32" t="s">
+        <v>796</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E139" s="44" t="s">
+      <c r="E139" s="45" t="s">
         <v>314</v>
       </c>
       <c r="F139" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G139" s="39" t="s">
+      <c r="G139" s="40" t="s">
         <v>25</v>
       </c>
       <c r="H139" s="15" t="s">
@@ -13602,15 +13608,15 @@
         <v>0.4</v>
       </c>
       <c r="Q139" s="15" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="R139" s="15" t="s">
         <v>120</v>
       </c>
       <c r="S139" s="23"/>
       <c r="T139" s="23"/>
-      <c r="U139" s="22" t="s">
-        <v>797</v>
+      <c r="U139" s="28" t="s">
+        <v>799</v>
       </c>
       <c r="V139" s="23"/>
       <c r="W139" s="23"/>
@@ -13627,11 +13633,11 @@
       <c r="A140" s="11">
         <v>139.0</v>
       </c>
-      <c r="B140" s="30" t="s">
-        <v>798</v>
+      <c r="B140" s="32" t="s">
+        <v>800</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>36</v>
@@ -13642,7 +13648,7 @@
       <c r="F140" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G140" s="39" t="s">
+      <c r="G140" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H140" s="15" t="s">
@@ -13674,7 +13680,7 @@
         <v>81</v>
       </c>
       <c r="R140" s="15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="S140" s="15" t="s">
         <v>577</v>
@@ -13682,8 +13688,8 @@
       <c r="T140" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U140" s="22" t="s">
-        <v>801</v>
+      <c r="U140" s="28" t="s">
+        <v>803</v>
       </c>
       <c r="V140" s="23"/>
       <c r="W140" s="23"/>
@@ -13701,10 +13707,10 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>36</v>
@@ -13746,19 +13752,19 @@
         <v>0.75</v>
       </c>
       <c r="Q141" s="15" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="R141" s="15" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="T141" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="U141" s="22" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="U141" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="V141" s="23"/>
       <c r="W141" s="23"/>
@@ -13775,14 +13781,14 @@
       <c r="A142" s="11">
         <v>141.0</v>
       </c>
-      <c r="B142" s="30" t="s">
-        <v>809</v>
+      <c r="B142" s="32" t="s">
+        <v>811</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E142" s="15" t="s">
         <v>24</v>
@@ -13790,7 +13796,7 @@
       <c r="F142" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G142" s="39" t="s">
+      <c r="G142" s="40" t="s">
         <v>119</v>
       </c>
       <c r="H142" s="15" t="s">
@@ -13830,8 +13836,8 @@
         <v>591</v>
       </c>
       <c r="T142" s="23"/>
-      <c r="U142" s="22" t="s">
-        <v>811</v>
+      <c r="U142" s="28" t="s">
+        <v>813</v>
       </c>
       <c r="V142" s="23"/>
       <c r="W142" s="23"/>
@@ -13848,14 +13854,14 @@
       <c r="A143" s="11">
         <v>142.0</v>
       </c>
-      <c r="B143" s="30" t="s">
-        <v>812</v>
+      <c r="B143" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E143" s="15" t="s">
         <v>24</v>
@@ -13879,7 +13885,7 @@
         <v>7.3</v>
       </c>
       <c r="L143" s="19" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M143" s="20">
         <v>12.0</v>
@@ -13897,12 +13903,12 @@
         <v>535</v>
       </c>
       <c r="R143" s="15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="S143" s="23"/>
       <c r="T143" s="23"/>
-      <c r="U143" s="22" t="s">
-        <v>816</v>
+      <c r="U143" s="28" t="s">
+        <v>818</v>
       </c>
       <c r="V143" s="23"/>
       <c r="W143" s="23"/>
@@ -13919,14 +13925,14 @@
       <c r="A144" s="11">
         <v>143.0</v>
       </c>
-      <c r="B144" s="30" t="s">
-        <v>817</v>
+      <c r="B144" s="32" t="s">
+        <v>819</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E144" s="15" t="s">
         <v>24</v>
@@ -13974,8 +13980,8 @@
         <v>591</v>
       </c>
       <c r="T144" s="23"/>
-      <c r="U144" s="22" t="s">
-        <v>819</v>
+      <c r="U144" s="28" t="s">
+        <v>821</v>
       </c>
       <c r="V144" s="23"/>
       <c r="W144" s="23"/>
@@ -13993,10 +13999,10 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>36</v>
@@ -14023,7 +14029,7 @@
         <v>6.5</v>
       </c>
       <c r="L145" s="19" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="M145" s="20">
         <v>15.0</v>
@@ -14045,8 +14051,8 @@
       </c>
       <c r="S145" s="23"/>
       <c r="T145" s="23"/>
-      <c r="U145" s="22" t="s">
-        <v>823</v>
+      <c r="U145" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="V145" s="23"/>
       <c r="W145" s="23"/>
@@ -14064,10 +14070,10 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>36</v>
@@ -14108,12 +14114,12 @@
       </c>
       <c r="Q146" s="23"/>
       <c r="R146" s="15" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="S146" s="23"/>
       <c r="T146" s="23"/>
       <c r="U146" s="22" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="V146" s="23"/>
       <c r="W146" s="23"/>
@@ -14130,11 +14136,11 @@
       <c r="A147" s="11">
         <v>146.0</v>
       </c>
-      <c r="B147" s="30" t="s">
-        <v>828</v>
+      <c r="B147" s="32" t="s">
+        <v>830</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>36</v>
@@ -14145,11 +14151,11 @@
       <c r="F147" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G147" s="39" t="s">
+      <c r="G147" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="I147" s="17" t="s">
         <v>571</v>
@@ -14176,15 +14182,15 @@
         <v>1.25</v>
       </c>
       <c r="Q147" s="15" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="R147" s="15" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="S147" s="23"/>
       <c r="T147" s="23"/>
       <c r="U147" s="22" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="V147" s="23"/>
       <c r="W147" s="23"/>
@@ -14201,13 +14207,13 @@
       <c r="A148" s="11">
         <v>147.0</v>
       </c>
-      <c r="B148" s="30" t="s">
-        <v>834</v>
+      <c r="B148" s="32" t="s">
+        <v>836</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="D148" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="D148" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E148" s="15" t="s">
@@ -14216,7 +14222,7 @@
       <c r="F148" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="28" t="s">
+      <c r="G148" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H148" s="15" t="s">
@@ -14251,7 +14257,7 @@
       <c r="S148" s="23"/>
       <c r="T148" s="23"/>
       <c r="U148" s="22" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="V148" s="23"/>
       <c r="W148" s="23"/>
@@ -14268,11 +14274,11 @@
       <c r="A149" s="11">
         <v>148.0</v>
       </c>
-      <c r="B149" s="30" t="s">
-        <v>837</v>
+      <c r="B149" s="32" t="s">
+        <v>839</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>36</v>
@@ -14312,15 +14318,15 @@
         <v>1.0</v>
       </c>
       <c r="Q149" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="S149" s="23"/>
       <c r="T149" s="23"/>
       <c r="U149" s="22" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="V149" s="23"/>
       <c r="W149" s="23"/>
@@ -14337,11 +14343,11 @@
       <c r="A150" s="11">
         <v>149.0</v>
       </c>
-      <c r="B150" s="30" t="s">
-        <v>841</v>
+      <c r="B150" s="32" t="s">
+        <v>843</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>36</v>
@@ -14350,7 +14356,7 @@
       <c r="F150" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="35" t="s">
         <v>52</v>
       </c>
       <c r="H150" s="15" t="s">
@@ -14382,16 +14388,16 @@
         <v>221</v>
       </c>
       <c r="R150" s="15" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="S150" s="15" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="T150" s="15" t="s">
         <v>67</v>
       </c>
       <c r="U150" s="22" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="V150" s="23"/>
       <c r="W150" s="23"/>
@@ -14408,17 +14414,17 @@
       <c r="A151" s="11">
         <v>150.0</v>
       </c>
-      <c r="B151" s="30" t="s">
-        <v>846</v>
+      <c r="B151" s="32" t="s">
+        <v>848</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D151" s="15" t="s">
         <v>288</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>25</v>
@@ -14439,7 +14445,7 @@
         <v>7.3</v>
       </c>
       <c r="L151" s="19" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M151" s="20">
         <v>10.0</v>
@@ -14455,12 +14461,12 @@
       </c>
       <c r="Q151" s="23"/>
       <c r="R151" s="15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S151" s="23"/>
       <c r="T151" s="23"/>
       <c r="U151" s="22" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="V151" s="23"/>
       <c r="W151" s="23"/>
@@ -14574,7 +14580,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="23"/>
-      <c r="B155" s="42"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="78"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
